--- a/data/trans_orig/P36B08-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P36B08-Provincia-trans_orig.xlsx
@@ -743,19 +743,19 @@
         <v>11562</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>6290</v>
+        <v>6810</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>19293</v>
+        <v>18786</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.04248044196860202</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.02310822152008437</v>
+        <v>0.02502177561822661</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.07088589943321535</v>
+        <v>0.06901998551312619</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>4</v>
@@ -764,19 +764,19 @@
         <v>4031</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>989</v>
+        <v>994</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>9888</v>
+        <v>10267</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.01545556336735529</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.003789876077408085</v>
+        <v>0.003808998374734021</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.03790850983413374</v>
+        <v>0.03936339191207468</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>17</v>
@@ -785,19 +785,19 @@
         <v>15594</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>9330</v>
+        <v>9365</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>23947</v>
+        <v>25295</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.02925542698716322</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01750337292614504</v>
+        <v>0.01756946223799547</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.04492681414113966</v>
+        <v>0.04745736618689075</v>
       </c>
     </row>
     <row r="5">
@@ -814,19 +814,19 @@
         <v>34987</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>25630</v>
+        <v>25924</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>48009</v>
+        <v>49512</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1285439755311524</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.09416813368165172</v>
+        <v>0.09524768713988599</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1763887143655127</v>
+        <v>0.1819116095924634</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>12</v>
@@ -835,19 +835,19 @@
         <v>13267</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>7088</v>
+        <v>6252</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>21983</v>
+        <v>21989</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.05086277625294514</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.02717363976712944</v>
+        <v>0.02396740043526762</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.08427833858778852</v>
+        <v>0.08430220926214112</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>45</v>
@@ -856,19 +856,19 @@
         <v>48254</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>36781</v>
+        <v>35346</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>63209</v>
+        <v>63195</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.09052955780188904</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.06900617698833564</v>
+        <v>0.06631255719921991</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1185881067712212</v>
+        <v>0.1185622806357709</v>
       </c>
     </row>
     <row r="6">
@@ -885,19 +885,19 @@
         <v>58596</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>45052</v>
+        <v>46123</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>72827</v>
+        <v>73483</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2152868674522393</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1655253710757825</v>
+        <v>0.1694613536417801</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2675730275959143</v>
+        <v>0.2699834432977258</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>57</v>
@@ -906,19 +906,19 @@
         <v>57593</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>45063</v>
+        <v>45565</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>72653</v>
+        <v>74307</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2207984556649394</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.172761747008414</v>
+        <v>0.1746888806889672</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2785355872914828</v>
+        <v>0.2848772877249464</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>112</v>
@@ -927,19 +927,19 @@
         <v>116189</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>98063</v>
+        <v>97455</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>137680</v>
+        <v>136874</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.217984042812765</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1839788030667818</v>
+        <v>0.1828369470690135</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2583049353055286</v>
+        <v>0.2567930707901173</v>
       </c>
     </row>
     <row r="7">
@@ -956,19 +956,19 @@
         <v>106679</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>90551</v>
+        <v>89362</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>122924</v>
+        <v>120602</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.3919494492450695</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.3326917496309152</v>
+        <v>0.3283237151461881</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.451633740762635</v>
+        <v>0.4431041897975131</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>95</v>
@@ -977,19 +977,19 @@
         <v>101398</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>85547</v>
+        <v>84984</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>117003</v>
+        <v>117026</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.3887394906841062</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.3279707975126636</v>
+        <v>0.3258129646564575</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.4485671253511117</v>
+        <v>0.4486527694378414</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>204</v>
@@ -998,19 +998,19 @@
         <v>208077</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>183760</v>
+        <v>185932</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>230765</v>
+        <v>232044</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.3903786096241071</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.344756030134074</v>
+        <v>0.3488321863357447</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.4329442097189679</v>
+        <v>0.4353434271108321</v>
       </c>
     </row>
     <row r="8">
@@ -1027,19 +1027,19 @@
         <v>60352</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>48389</v>
+        <v>48361</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>74956</v>
+        <v>75428</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.2217392658029368</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1777864228141778</v>
+        <v>0.1776828680038707</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2753942084808719</v>
+        <v>0.2771310012933646</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>77</v>
@@ -1048,19 +1048,19 @@
         <v>84549</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>68381</v>
+        <v>70088</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>100007</v>
+        <v>101795</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.324143714030654</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.262160227307738</v>
+        <v>0.2687018514612435</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.3834071211004598</v>
+        <v>0.390261553103062</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>137</v>
@@ -1069,19 +1069,19 @@
         <v>144901</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>125895</v>
+        <v>125258</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>167791</v>
+        <v>166498</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.2718523627740757</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.2361949410226433</v>
+        <v>0.2349993593797126</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.3147965529131176</v>
+        <v>0.3123707900337551</v>
       </c>
     </row>
     <row r="9">
@@ -1173,19 +1173,19 @@
         <v>24790</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>16762</v>
+        <v>16985</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>36752</v>
+        <v>36787</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.05027534421047677</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.03399579659245271</v>
+        <v>0.03444754844776443</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.07453544007883875</v>
+        <v>0.0746070588299048</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>14</v>
@@ -1194,19 +1194,19 @@
         <v>13838</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>7467</v>
+        <v>8106</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>22214</v>
+        <v>23289</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.02746006816542743</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.01481758068050674</v>
+        <v>0.01608578398610933</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.0440799184288967</v>
+        <v>0.04621314826302567</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>37</v>
@@ -1215,19 +1215,19 @@
         <v>38628</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>27791</v>
+        <v>27084</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>53540</v>
+        <v>51885</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.03874328985649585</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.02787360466711798</v>
+        <v>0.0271649099405421</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.05369999561087711</v>
+        <v>0.05203995445822511</v>
       </c>
     </row>
     <row r="11">
@@ -1244,19 +1244,19 @@
         <v>62082</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>47539</v>
+        <v>48946</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>76834</v>
+        <v>77382</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1259075822769836</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.09641261556966164</v>
+        <v>0.09926592158073241</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1558261615775677</v>
+        <v>0.1569384438502171</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>52</v>
@@ -1265,19 +1265,19 @@
         <v>52224</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>40144</v>
+        <v>39627</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>66821</v>
+        <v>66570</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1036292743691079</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.07965968874363757</v>
+        <v>0.07863204093782401</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.132594914921803</v>
+        <v>0.1320966390276426</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>113</v>
@@ -1286,19 +1286,19 @@
         <v>114306</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>94601</v>
+        <v>96191</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>136303</v>
+        <v>136239</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1146469401878385</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.09488292458726061</v>
+        <v>0.09647836952986273</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1367101743127269</v>
+        <v>0.1366461301339063</v>
       </c>
     </row>
     <row r="12">
@@ -1315,19 +1315,19 @@
         <v>181607</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>161080</v>
+        <v>161472</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>202870</v>
+        <v>203618</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.3683143241810687</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.3266851598486106</v>
+        <v>0.3274805506904425</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.4114381985133519</v>
+        <v>0.4129555870053082</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>149</v>
@@ -1336,19 +1336,19 @@
         <v>147450</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>128613</v>
+        <v>128252</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>170781</v>
+        <v>167671</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.2925893788277871</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.255210894440806</v>
+        <v>0.2544949949311601</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.338885152895144</v>
+        <v>0.3327143383861609</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>325</v>
@@ -1357,19 +1357,19 @@
         <v>329057</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>302026</v>
+        <v>301134</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>360619</v>
+        <v>360096</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.3300389080063095</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.3029273864354226</v>
+        <v>0.3020333029139328</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.3616956729215401</v>
+        <v>0.361170675349697</v>
       </c>
     </row>
     <row r="13">
@@ -1386,19 +1386,19 @@
         <v>136927</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>118117</v>
+        <v>115874</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>158280</v>
+        <v>156206</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2777005951548613</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2395516268814559</v>
+        <v>0.2350020179487378</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3210049290055286</v>
+        <v>0.3167998131205313</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>155</v>
@@ -1407,19 +1407,19 @@
         <v>157168</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>136470</v>
+        <v>137426</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>178822</v>
+        <v>177022</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.3118723283913338</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2708004193950586</v>
+        <v>0.2726972757604201</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3548413585651925</v>
+        <v>0.3512687886850427</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>282</v>
@@ -1428,19 +1428,19 @@
         <v>294095</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>265083</v>
+        <v>262916</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>321850</v>
+        <v>322222</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.294972807170821</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2658745361634683</v>
+        <v>0.2637004097878164</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3228109200315854</v>
+        <v>0.3231834608357662</v>
       </c>
     </row>
     <row r="14">
@@ -1457,19 +1457,19 @@
         <v>87670</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>69597</v>
+        <v>71483</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>104921</v>
+        <v>105889</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1778021541766096</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1411481753117612</v>
+        <v>0.1449733863646133</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2127886083655255</v>
+        <v>0.2147523797285869</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>129</v>
@@ -1478,19 +1478,19 @@
         <v>133269</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>113667</v>
+        <v>112700</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>152922</v>
+        <v>153200</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.2644489502463437</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.2255517931714069</v>
+        <v>0.2236339755432547</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.3034482436389275</v>
+        <v>0.3039999271157665</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>207</v>
@@ -1499,19 +1499,19 @@
         <v>220939</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>195071</v>
+        <v>196479</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>246975</v>
+        <v>249833</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.2215980547785352</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1956530924754924</v>
+        <v>0.1970653144526105</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2477120522285417</v>
+        <v>0.250578786179548</v>
       </c>
     </row>
     <row r="15">
@@ -1606,7 +1606,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>6868</v>
+        <v>5882</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.005776072349390113</v>
@@ -1615,7 +1615,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.02153947485244748</v>
+        <v>0.01844753916358457</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>3</v>
@@ -1624,19 +1624,19 @@
         <v>3041</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>917</v>
+        <v>907</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>9287</v>
+        <v>8663</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.009067938827311011</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.002734180442817803</v>
+        <v>0.002704266754592173</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.02768775453337631</v>
+        <v>0.02582726696031348</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>5</v>
@@ -1645,19 +1645,19 @@
         <v>4883</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1838</v>
+        <v>1890</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>11580</v>
+        <v>11093</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.007463681322459783</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.002809120507308071</v>
+        <v>0.002889297539820783</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.01769902667339545</v>
+        <v>0.01695542264578287</v>
       </c>
     </row>
     <row r="17">
@@ -1674,19 +1674,19 @@
         <v>17042</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>9971</v>
+        <v>10078</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>27523</v>
+        <v>26875</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.05344795144356519</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.03127158381881215</v>
+        <v>0.03160929140641121</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.08632198105712759</v>
+        <v>0.0842877351142782</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>4</v>
@@ -1695,19 +1695,19 @@
         <v>4327</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>905</v>
+        <v>909</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>11836</v>
+        <v>11202</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.01290123171193015</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.002698989619002858</v>
+        <v>0.002709166668510631</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.03528812877880638</v>
+        <v>0.03339845505733707</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>19</v>
@@ -1716,19 +1716,19 @@
         <v>21369</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>13173</v>
+        <v>13100</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>33161</v>
+        <v>32954</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.03266126142846287</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.02013351184757484</v>
+        <v>0.02002246365171958</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.05068468479912421</v>
+        <v>0.05036906378378034</v>
       </c>
     </row>
     <row r="18">
@@ -1745,19 +1745,19 @@
         <v>68427</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>53294</v>
+        <v>54086</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>83076</v>
+        <v>84697</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.2146081896149189</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1671471801409109</v>
+        <v>0.1696311284595333</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.2605523723178604</v>
+        <v>0.2656348200240711</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>70</v>
@@ -1766,19 +1766,19 @@
         <v>69295</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>55512</v>
+        <v>54559</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>83942</v>
+        <v>85550</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.2065970199966908</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.1655050945240942</v>
+        <v>0.1626621934227009</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.2502641610187104</v>
+        <v>0.2550601157018503</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>136</v>
@@ -1787,19 +1787,19 @@
         <v>137722</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>119112</v>
+        <v>117474</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>161239</v>
+        <v>158702</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.2105011816839521</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.1820563389961642</v>
+        <v>0.1795530335029178</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.2464452796566209</v>
+        <v>0.2425679289276034</v>
       </c>
     </row>
     <row r="19">
@@ -1816,19 +1816,19 @@
         <v>182208</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>165004</v>
+        <v>163280</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>199554</v>
+        <v>199197</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.5714619730735441</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.5175027273427873</v>
+        <v>0.5120982516587723</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.6258625239175887</v>
+        <v>0.6247422830239887</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>198</v>
@@ -1837,19 +1837,19 @@
         <v>199172</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>179749</v>
+        <v>181729</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>215831</v>
+        <v>216714</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.5938125626564938</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.5359048920217179</v>
+        <v>0.5418095331885032</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.6434804442131434</v>
+        <v>0.6461132218423342</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>376</v>
@@ -1858,19 +1858,19 @@
         <v>381380</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>356839</v>
+        <v>357678</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>406059</v>
+        <v>405576</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.5829202311124322</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.5454098473451857</v>
+        <v>0.5466918689241612</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.6206405100611782</v>
+        <v>0.6199015541056362</v>
       </c>
     </row>
     <row r="20">
@@ -1887,19 +1887,19 @@
         <v>49327</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>37604</v>
+        <v>38308</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>63341</v>
+        <v>63834</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1547058135185817</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1179363129024307</v>
+        <v>0.1201460837861943</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1986585434375511</v>
+        <v>0.2002036228713421</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>60</v>
@@ -1908,19 +1908,19 @@
         <v>59576</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>47399</v>
+        <v>47179</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>76026</v>
+        <v>75089</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1776212468075742</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1413147007624257</v>
+        <v>0.1406589774383448</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.2266657348551961</v>
+        <v>0.223869975519498</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>109</v>
@@ -1929,19 +1929,19 @@
         <v>108904</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>90375</v>
+        <v>91096</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>129739</v>
+        <v>127390</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.166453644452693</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1381340370983696</v>
+        <v>0.1392356344671939</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1982987062435238</v>
+        <v>0.1947089209517051</v>
       </c>
     </row>
     <row r="21">
@@ -2033,19 +2033,19 @@
         <v>3720</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>8630</v>
+        <v>9117</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.01037214800475634</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.00272953781818726</v>
+        <v>0.00272731200899479</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.02406153750730798</v>
+        <v>0.02541934511906751</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>2</v>
@@ -2057,7 +2057,7 @@
         <v>0</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>6336</v>
+        <v>6212</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.004850042625315822</v>
@@ -2066,7 +2066,7 @@
         <v>0</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.01705620762863304</v>
+        <v>0.01672222327186384</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>6</v>
@@ -2075,19 +2075,19 @@
         <v>5522</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1908</v>
+        <v>2660</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>11237</v>
+        <v>12218</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.007562748042387184</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.002613841507706702</v>
+        <v>0.003643803283698315</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.01539012534733814</v>
+        <v>0.01673379522750569</v>
       </c>
     </row>
     <row r="23">
@@ -2104,19 +2104,19 @@
         <v>21608</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>13002</v>
+        <v>13821</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>31971</v>
+        <v>34233</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.06024446040971127</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.03625106764052665</v>
+        <v>0.03853368758945705</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.08913696811175763</v>
+        <v>0.09544479051569876</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>9</v>
@@ -2125,19 +2125,19 @@
         <v>8564</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>3783</v>
+        <v>3963</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>15740</v>
+        <v>16256</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.02305605527891867</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.010184013475542</v>
+        <v>0.010667925306721</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.04237397777240782</v>
+        <v>0.04376317113081302</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>31</v>
@@ -2146,19 +2146,19 @@
         <v>30172</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>20173</v>
+        <v>20177</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>43038</v>
+        <v>41753</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.04132466500631334</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.02762906166113512</v>
+        <v>0.02763504672374627</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.05894548995736777</v>
+        <v>0.05718529716706922</v>
       </c>
     </row>
     <row r="24">
@@ -2175,19 +2175,19 @@
         <v>87275</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>72976</v>
+        <v>73149</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>103970</v>
+        <v>103605</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.2433275599924768</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.2034627369640725</v>
+        <v>0.2039458165969043</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.2898744191080323</v>
+        <v>0.2888579989501814</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>76</v>
@@ -2196,19 +2196,19 @@
         <v>72539</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>58667</v>
+        <v>59677</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>88137</v>
+        <v>89132</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1952832022753495</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1579373642895838</v>
+        <v>0.1606581035479213</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.2372731995834781</v>
+        <v>0.2399539057210683</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>165</v>
@@ -2217,19 +2217,19 @@
         <v>159814</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>137347</v>
+        <v>137984</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>181453</v>
+        <v>179978</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.2188847419931898</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1881144606407483</v>
+        <v>0.1889865095414158</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.2485231226614122</v>
+        <v>0.2465019276011237</v>
       </c>
     </row>
     <row r="25">
@@ -2246,19 +2246,19 @@
         <v>162630</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>145766</v>
+        <v>143692</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>181959</v>
+        <v>180740</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.4534246979142656</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.4064061047216125</v>
+        <v>0.4006240134422021</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.507313715890283</v>
+        <v>0.5039150053337036</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>173</v>
@@ -2267,19 +2267,19 @@
         <v>166782</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>150526</v>
+        <v>149632</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>185555</v>
+        <v>184256</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.4489943547319858</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.4052310784095141</v>
+        <v>0.4028258456461298</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.4995353497106903</v>
+        <v>0.4960361589096085</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>337</v>
@@ -2288,19 +2288,19 @@
         <v>329412</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>304114</v>
+        <v>304021</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>355010</v>
+        <v>358127</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.4511707376736807</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.4165215845881082</v>
+        <v>0.4163951340837656</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.4862298382157902</v>
+        <v>0.4905002055068811</v>
       </c>
     </row>
     <row r="26">
@@ -2317,19 +2317,19 @@
         <v>83438</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>68816</v>
+        <v>68546</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>100562</v>
+        <v>99271</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.23263113367879</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1918628036767409</v>
+        <v>0.1911118376223809</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2803740197264501</v>
+        <v>0.2767753299392991</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>124</v>
@@ -2338,19 +2338,19 @@
         <v>121769</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>103432</v>
+        <v>104669</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>138576</v>
+        <v>139143</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.3278163450884303</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.278451456752229</v>
+        <v>0.2817802881939596</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.3730604320382123</v>
+        <v>0.3745894336091408</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>207</v>
@@ -2359,19 +2359,19 @@
         <v>205207</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>180600</v>
+        <v>183069</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>230085</v>
+        <v>231998</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.281057107284429</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.2473539945797611</v>
+        <v>0.2507355519271293</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.3151298188695688</v>
+        <v>0.3177495477868434</v>
       </c>
     </row>
     <row r="27">
@@ -2463,19 +2463,19 @@
         <v>4611</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>1769</v>
+        <v>1787</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>10404</v>
+        <v>10224</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.02267878319708781</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.008698851636089753</v>
+        <v>0.008789166778542568</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.05117585110108045</v>
+        <v>0.05028993160417979</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>1</v>
@@ -2487,7 +2487,7 @@
         <v>0</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>5518</v>
+        <v>5040</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.004430080058222065</v>
@@ -2496,7 +2496,7 @@
         <v>0</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.02657272513777984</v>
+        <v>0.02426920151307986</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>7</v>
@@ -2505,19 +2505,19 @@
         <v>5531</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>1936</v>
+        <v>1891</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>12002</v>
+        <v>11100</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.01345763339931557</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.004710810161063394</v>
+        <v>0.004600818302605387</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.0292030564543728</v>
+        <v>0.02700801890706508</v>
       </c>
     </row>
     <row r="29">
@@ -2534,19 +2534,19 @@
         <v>15068</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>8198</v>
+        <v>9202</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>22973</v>
+        <v>23524</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.07411263107359396</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.04032504438559688</v>
+        <v>0.04526282507563564</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.1129967016440538</v>
+        <v>0.1157079717476616</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>9</v>
@@ -2555,19 +2555,19 @@
         <v>10363</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>5243</v>
+        <v>4780</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>19203</v>
+        <v>19318</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.04990412275395388</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.02524782279699397</v>
+        <v>0.02301706260845828</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.09247173333198727</v>
+        <v>0.09302166920682212</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>25</v>
@@ -2576,19 +2576,19 @@
         <v>25431</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>16748</v>
+        <v>16867</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>36804</v>
+        <v>36860</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.06187996555773135</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.04075238003506201</v>
+        <v>0.04104068656472354</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.08955165054440826</v>
+        <v>0.08968841684542371</v>
       </c>
     </row>
     <row r="30">
@@ -2605,19 +2605,19 @@
         <v>80106</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>66507</v>
+        <v>65655</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>93901</v>
+        <v>94270</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.3940142961759001</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.3271266893602112</v>
+        <v>0.3229313620187859</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.4618641575617746</v>
+        <v>0.4636821251967595</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>64</v>
@@ -2626,19 +2626,19 @@
         <v>66380</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>53243</v>
+        <v>54025</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>81174</v>
+        <v>81915</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.3196466488404022</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.2563852160273354</v>
+        <v>0.2601499565744423</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.3908848491106436</v>
+        <v>0.3944536306708092</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>145</v>
@@ -2647,19 +2647,19 @@
         <v>146487</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>126833</v>
+        <v>127893</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>166180</v>
+        <v>165696</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.3564359975444749</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.3086144618097412</v>
+        <v>0.3111938225691295</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.4043556420590309</v>
+        <v>0.40317778998737</v>
       </c>
     </row>
     <row r="31">
@@ -2676,19 +2676,19 @@
         <v>42229</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>30869</v>
+        <v>31434</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>53884</v>
+        <v>54114</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.2077116273511498</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.1518331825093297</v>
+        <v>0.1546127375854081</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.2650381781054743</v>
+        <v>0.2661653107004406</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>47</v>
@@ -2697,19 +2697,19 @@
         <v>47324</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>36408</v>
+        <v>36588</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>60258</v>
+        <v>61953</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.2278838463112374</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.1753166355007468</v>
+        <v>0.1761840562598276</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.2901674707374457</v>
+        <v>0.2983254236787137</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>89</v>
@@ -2718,19 +2718,19 @@
         <v>89554</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>73227</v>
+        <v>73265</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>107802</v>
+        <v>107163</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.2179047381365549</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.1781783131896238</v>
+        <v>0.1782707505261094</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.2623074116063098</v>
+        <v>0.260752064245071</v>
       </c>
     </row>
     <row r="32">
@@ -2747,19 +2747,19 @@
         <v>61294</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>48440</v>
+        <v>49189</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>74480</v>
+        <v>74797</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.3014826622022683</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.2382574760698351</v>
+        <v>0.2419429044676056</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.3663410700721106</v>
+        <v>0.367899070107642</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>77</v>
@@ -2768,19 +2768,19 @@
         <v>82680</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>69155</v>
+        <v>67750</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>98039</v>
+        <v>97448</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.3981353020361844</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.3330067579431559</v>
+        <v>0.3262395101111926</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.4720959844536032</v>
+        <v>0.4692469136989785</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>138</v>
@@ -2789,19 +2789,19 @@
         <v>143974</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>124732</v>
+        <v>122788</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>164244</v>
+        <v>161181</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.3503216653619233</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.3035011727051074</v>
+        <v>0.29877255032174</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.3996445861889875</v>
+        <v>0.3921912274203925</v>
       </c>
     </row>
     <row r="33">
@@ -2896,7 +2896,7 @@
         <v>0</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>6633</v>
+        <v>6990</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.007256543742415063</v>
@@ -2905,7 +2905,7 @@
         <v>0</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.02449436218672498</v>
+        <v>0.02581226357979876</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>4</v>
@@ -2914,19 +2914,19 @@
         <v>3882</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>9833</v>
+        <v>8805</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.01395735855338413</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.003438103454421632</v>
+        <v>0.003439363902979201</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.03535143265272143</v>
+        <v>0.03165727352249622</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>6</v>
@@ -2935,19 +2935,19 @@
         <v>5847</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>1994</v>
+        <v>1960</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>12679</v>
+        <v>12795</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.01065170622606116</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.003632076477426538</v>
+        <v>0.003570843577626917</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.02309717880842522</v>
+        <v>0.02330807805279819</v>
       </c>
     </row>
     <row r="35">
@@ -2964,19 +2964,19 @@
         <v>21157</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>13609</v>
+        <v>13279</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>31398</v>
+        <v>30813</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.07812561936659189</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.05025216687415917</v>
+        <v>0.04903456577523915</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.1159411650025437</v>
+        <v>0.1137788918348085</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>7</v>
@@ -2985,19 +2985,19 @@
         <v>7308</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>3061</v>
+        <v>3044</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>14272</v>
+        <v>14239</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.02627304639257584</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.01100530943092629</v>
+        <v>0.01094277891907182</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.0513120590061437</v>
+        <v>0.05119401386239562</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>28</v>
@@ -3006,19 +3006,19 @@
         <v>28465</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>19542</v>
+        <v>19648</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>40101</v>
+        <v>40406</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.05185300694433625</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.03559823794485849</v>
+        <v>0.03579134183633591</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.07305057287426139</v>
+        <v>0.07360472387190488</v>
       </c>
     </row>
     <row r="36">
@@ -3035,19 +3035,19 @@
         <v>72956</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>57782</v>
+        <v>60109</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>87774</v>
+        <v>89911</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.2693999982529058</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.2133658391073446</v>
+        <v>0.2219599531329138</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.324114311337065</v>
+        <v>0.3320059599744951</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>53</v>
@@ -3056,19 +3056,19 @@
         <v>54689</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>41654</v>
+        <v>41632</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>69220</v>
+        <v>68680</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.1966200023390652</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.1497582958623734</v>
+        <v>0.1496786301010036</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.2488629472763097</v>
+        <v>0.2469232868113294</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>125</v>
@@ -3077,19 +3077,19 @@
         <v>127645</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>107563</v>
+        <v>109047</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>148112</v>
+        <v>146320</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.2325238990534337</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.1959422457644154</v>
+        <v>0.1986451432652047</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.2698067863147562</v>
+        <v>0.2665433842876171</v>
       </c>
     </row>
     <row r="37">
@@ -3106,19 +3106,19 @@
         <v>142961</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>127941</v>
+        <v>126600</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>160696</v>
+        <v>158762</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.5278986964347983</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.4724358123721102</v>
+        <v>0.4674865392856701</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.5933895457769871</v>
+        <v>0.5862472342134326</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>159</v>
@@ -3127,19 +3127,19 @@
         <v>164006</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>146752</v>
+        <v>148616</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>178480</v>
+        <v>180610</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.5896438591207421</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.5276133029482144</v>
+        <v>0.5343149285903187</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.6416829705798175</v>
+        <v>0.6493403974090119</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>299</v>
@@ -3148,19 +3148,19 @@
         <v>306967</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>285152</v>
+        <v>284222</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>331385</v>
+        <v>329661</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.5591836768158072</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.5194450515376912</v>
+        <v>0.5177506509718335</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.6036659646514257</v>
+        <v>0.6005249038707279</v>
       </c>
     </row>
     <row r="38">
@@ -3177,19 +3177,19 @@
         <v>31771</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>22960</v>
+        <v>23004</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>44093</v>
+        <v>43182</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.117319142203289</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.08478115411014754</v>
+        <v>0.08494407799771009</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.1628167966585882</v>
+        <v>0.1594537244491609</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>47</v>
@@ -3198,19 +3198,19 @@
         <v>48260</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>36878</v>
+        <v>36042</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>61768</v>
+        <v>61656</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.1735057335942327</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.1325846884445614</v>
+        <v>0.1295810991561345</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.2220714508188489</v>
+        <v>0.2216703394538181</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>78</v>
@@ -3219,19 +3219,19 @@
         <v>80031</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>63137</v>
+        <v>64859</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>97110</v>
+        <v>96007</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.1457877109603618</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.115012382296353</v>
+        <v>0.1181501737290085</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.1769001989362765</v>
+        <v>0.1748912011109051</v>
       </c>
     </row>
     <row r="39">
@@ -3323,19 +3323,19 @@
         <v>4615</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>1779</v>
+        <v>1789</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>10431</v>
+        <v>10168</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.007503515594655247</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.002892839098541294</v>
+        <v>0.002908073393683459</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.01696039740036473</v>
+        <v>0.01653185222115167</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>6</v>
@@ -3344,19 +3344,19 @@
         <v>5866</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>2646</v>
+        <v>2028</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>12115</v>
+        <v>12092</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.009190645278746419</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.004145208028575634</v>
+        <v>0.00317697465359396</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.01898297048031004</v>
+        <v>0.0189466504907689</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>11</v>
@@ -3365,19 +3365,19 @@
         <v>10481</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>5870</v>
+        <v>5684</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>18386</v>
+        <v>18168</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.008362691086341825</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.004683652704679459</v>
+        <v>0.004535203019755364</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.0146703853989703</v>
+        <v>0.01449682841233953</v>
       </c>
     </row>
     <row r="41">
@@ -3394,19 +3394,19 @@
         <v>16468</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>9371</v>
+        <v>10291</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>25408</v>
+        <v>26709</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.0267763064806266</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.01523599463999271</v>
+        <v>0.01673329980381588</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.04131261920523799</v>
+        <v>0.04342790875351822</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>18</v>
@@ -3415,19 +3415,19 @@
         <v>17795</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>10751</v>
+        <v>10966</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>27296</v>
+        <v>27495</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.02788224346852743</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.01684524776579282</v>
+        <v>0.01718210230636824</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.04276894926943429</v>
+        <v>0.04308015855102435</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>36</v>
@@ -3436,19 +3436,19 @@
         <v>34263</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>24044</v>
+        <v>23982</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>47286</v>
+        <v>46593</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.0273395079726719</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.01918505375105345</v>
+        <v>0.01913610300290255</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.03773083065203183</v>
+        <v>0.03717819643458204</v>
       </c>
     </row>
     <row r="42">
@@ -3465,19 +3465,19 @@
         <v>128825</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>108674</v>
+        <v>109509</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>151935</v>
+        <v>150653</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.2094630432564651</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.1766974997507684</v>
+        <v>0.1780558152948467</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.2470377546998037</v>
+        <v>0.2449530455664324</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>135</v>
@@ -3486,19 +3486,19 @@
         <v>135694</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>114562</v>
+        <v>116078</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>156096</v>
+        <v>156418</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.2126143075791105</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.1795027599306926</v>
+        <v>0.1818778832591076</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.2445810527890886</v>
+        <v>0.2450850985371265</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>260</v>
@@ -3507,19 +3507,19 @@
         <v>264520</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>234528</v>
+        <v>234564</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>290690</v>
+        <v>295358</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.2110678333916714</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.1871363538761357</v>
+        <v>0.1871652730083072</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.2319494595375502</v>
+        <v>0.2356744464022282</v>
       </c>
     </row>
     <row r="43">
@@ -3536,19 +3536,19 @@
         <v>356820</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>331776</v>
+        <v>333361</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>382265</v>
+        <v>383788</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.5801696766060583</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.5394491900548372</v>
+        <v>0.5420260087494826</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.6215416341604556</v>
+        <v>0.6240180729525112</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>334</v>
@@ -3557,19 +3557,19 @@
         <v>348413</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>323060</v>
+        <v>324129</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>372467</v>
+        <v>374951</v>
       </c>
       <c r="N43" s="6" t="n">
         <v>0.5459149921845711</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.5061895794217214</v>
+        <v>0.5078642202681678</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.5836030450408787</v>
+        <v>0.5874959378964659</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>679</v>
@@ -3578,19 +3578,19 @@
         <v>705233</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>670544</v>
+        <v>672232</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>740374</v>
+        <v>743355</v>
       </c>
       <c r="U43" s="6" t="n">
         <v>0.5627253831365532</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.5350455628613008</v>
+        <v>0.5363924345773987</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.5907648219699976</v>
+        <v>0.5931439058135375</v>
       </c>
     </row>
     <row r="44">
@@ -3607,19 +3607,19 @@
         <v>108299</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>91333</v>
+        <v>89563</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>129030</v>
+        <v>129088</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.1760874580621947</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.1485021556367008</v>
+        <v>0.1456250101350041</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.2097948882858885</v>
+        <v>0.2098901113956269</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>128</v>
@@ -3628,19 +3628,19 @@
         <v>130451</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>111499</v>
+        <v>110130</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>152055</v>
+        <v>152208</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.2043978114890445</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.1747037465325358</v>
+        <v>0.1725575553403506</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.2382491470724339</v>
+        <v>0.2384880811303781</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>233</v>
@@ -3649,19 +3649,19 @@
         <v>238749</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>211162</v>
+        <v>212029</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>268785</v>
+        <v>265273</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.1905045844127616</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.1684923089903898</v>
+        <v>0.1691839465048204</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.2144713499095865</v>
+        <v>0.2116688206708009</v>
       </c>
     </row>
     <row r="45">
@@ -3753,19 +3753,19 @@
         <v>19772</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>12327</v>
+        <v>13002</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>31085</v>
+        <v>30083</v>
       </c>
       <c r="G46" s="6" t="n">
         <v>0.02658295961451733</v>
       </c>
       <c r="H46" s="6" t="n">
-        <v>0.01657358684885862</v>
+        <v>0.01748029127800979</v>
       </c>
       <c r="I46" s="6" t="n">
-        <v>0.0417917642702731</v>
+        <v>0.04044571046138226</v>
       </c>
       <c r="J46" s="5" t="n">
         <v>7</v>
@@ -3774,19 +3774,19 @@
         <v>8195</v>
       </c>
       <c r="L46" s="5" t="n">
-        <v>3981</v>
+        <v>3567</v>
       </c>
       <c r="M46" s="5" t="n">
-        <v>18175</v>
+        <v>16897</v>
       </c>
       <c r="N46" s="6" t="n">
         <v>0.01047362263259927</v>
       </c>
       <c r="O46" s="6" t="n">
-        <v>0.005088100793247548</v>
+        <v>0.004558768584387994</v>
       </c>
       <c r="P46" s="6" t="n">
-        <v>0.02322806488956734</v>
+        <v>0.02159515527129532</v>
       </c>
       <c r="Q46" s="5" t="n">
         <v>26</v>
@@ -3795,19 +3795,19 @@
         <v>27967</v>
       </c>
       <c r="S46" s="5" t="n">
-        <v>18127</v>
+        <v>18962</v>
       </c>
       <c r="T46" s="5" t="n">
-        <v>41067</v>
+        <v>41449</v>
       </c>
       <c r="U46" s="6" t="n">
         <v>0.01832428635885247</v>
       </c>
       <c r="V46" s="6" t="n">
-        <v>0.01187673669664542</v>
+        <v>0.01242380417121222</v>
       </c>
       <c r="W46" s="6" t="n">
-        <v>0.0269070069959042</v>
+        <v>0.02715760023636738</v>
       </c>
     </row>
     <row r="47">
@@ -3824,19 +3824,19 @@
         <v>39326</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>28239</v>
+        <v>27993</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>53500</v>
+        <v>54661</v>
       </c>
       <c r="G47" s="6" t="n">
         <v>0.05287228811261031</v>
       </c>
       <c r="H47" s="6" t="n">
-        <v>0.03796622717582412</v>
+        <v>0.03763583116962468</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.07192787065667701</v>
+        <v>0.07348954450436126</v>
       </c>
       <c r="J47" s="5" t="n">
         <v>32</v>
@@ -3845,19 +3845,19 @@
         <v>32709</v>
       </c>
       <c r="L47" s="5" t="n">
-        <v>22549</v>
+        <v>22983</v>
       </c>
       <c r="M47" s="5" t="n">
-        <v>44745</v>
+        <v>45681</v>
       </c>
       <c r="N47" s="6" t="n">
         <v>0.04180345142789261</v>
       </c>
       <c r="O47" s="6" t="n">
-        <v>0.02881849416709959</v>
+        <v>0.0293729581558311</v>
       </c>
       <c r="P47" s="6" t="n">
-        <v>0.05718536472256176</v>
+        <v>0.05838176981214702</v>
       </c>
       <c r="Q47" s="5" t="n">
         <v>70</v>
@@ -3866,19 +3866,19 @@
         <v>72035</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>56358</v>
+        <v>57130</v>
       </c>
       <c r="T47" s="5" t="n">
-        <v>89409</v>
+        <v>90773</v>
       </c>
       <c r="U47" s="6" t="n">
         <v>0.04719769668764926</v>
       </c>
       <c r="V47" s="6" t="n">
-        <v>0.03692600726888692</v>
+        <v>0.03743172255575059</v>
       </c>
       <c r="W47" s="6" t="n">
-        <v>0.05858091167820709</v>
+        <v>0.05947455080031912</v>
       </c>
     </row>
     <row r="48">
@@ -3895,19 +3895,19 @@
         <v>226172</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>201664</v>
+        <v>198500</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>251408</v>
+        <v>249553</v>
       </c>
       <c r="G48" s="6" t="n">
         <v>0.3040785874317137</v>
       </c>
       <c r="H48" s="6" t="n">
-        <v>0.2711290126369444</v>
+        <v>0.2668747618789172</v>
       </c>
       <c r="I48" s="6" t="n">
-        <v>0.3380076383072528</v>
+        <v>0.3355128923484314</v>
       </c>
       <c r="J48" s="5" t="n">
         <v>176</v>
@@ -3916,19 +3916,19 @@
         <v>184793</v>
       </c>
       <c r="L48" s="5" t="n">
-        <v>159137</v>
+        <v>162112</v>
       </c>
       <c r="M48" s="5" t="n">
-        <v>209711</v>
+        <v>209991</v>
       </c>
       <c r="N48" s="6" t="n">
         <v>0.2361716135039731</v>
       </c>
       <c r="O48" s="6" t="n">
-        <v>0.2033825996456326</v>
+        <v>0.2071850742997624</v>
       </c>
       <c r="P48" s="6" t="n">
-        <v>0.268018364184779</v>
+        <v>0.2683762764599756</v>
       </c>
       <c r="Q48" s="5" t="n">
         <v>397</v>
@@ -3937,19 +3937,19 @@
         <v>410965</v>
       </c>
       <c r="S48" s="5" t="n">
-        <v>378202</v>
+        <v>377743</v>
       </c>
       <c r="T48" s="5" t="n">
-        <v>446815</v>
+        <v>444333</v>
       </c>
       <c r="U48" s="6" t="n">
         <v>0.2692651429007776</v>
       </c>
       <c r="V48" s="6" t="n">
-        <v>0.2477989673509638</v>
+        <v>0.2474980406414321</v>
       </c>
       <c r="W48" s="6" t="n">
-        <v>0.2927544211737891</v>
+        <v>0.2911283431421939</v>
       </c>
     </row>
     <row r="49">
@@ -3966,19 +3966,19 @@
         <v>253974</v>
       </c>
       <c r="E49" s="5" t="n">
-        <v>231406</v>
+        <v>228962</v>
       </c>
       <c r="F49" s="5" t="n">
-        <v>280913</v>
+        <v>280205</v>
       </c>
       <c r="G49" s="6" t="n">
         <v>0.3414568597463055</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>0.3111152943434727</v>
+        <v>0.3078297818321959</v>
       </c>
       <c r="I49" s="6" t="n">
-        <v>0.3776756727240769</v>
+        <v>0.3767233750092543</v>
       </c>
       <c r="J49" s="5" t="n">
         <v>263</v>
@@ -3987,19 +3987,19 @@
         <v>275945</v>
       </c>
       <c r="L49" s="5" t="n">
-        <v>250522</v>
+        <v>250005</v>
       </c>
       <c r="M49" s="5" t="n">
-        <v>303666</v>
+        <v>305299</v>
       </c>
       <c r="N49" s="6" t="n">
         <v>0.3526678530185963</v>
       </c>
       <c r="O49" s="6" t="n">
-        <v>0.3201761679761377</v>
+        <v>0.3195157478655026</v>
       </c>
       <c r="P49" s="6" t="n">
-        <v>0.3880952457191978</v>
+        <v>0.390182413838131</v>
       </c>
       <c r="Q49" s="5" t="n">
         <v>517</v>
@@ -4008,19 +4008,19 @@
         <v>529919</v>
       </c>
       <c r="S49" s="5" t="n">
-        <v>495317</v>
+        <v>493931</v>
       </c>
       <c r="T49" s="5" t="n">
-        <v>569408</v>
+        <v>565426</v>
       </c>
       <c r="U49" s="6" t="n">
         <v>0.3472043297018494</v>
       </c>
       <c r="V49" s="6" t="n">
-        <v>0.324532593961357</v>
+        <v>0.3236250176649805</v>
       </c>
       <c r="W49" s="6" t="n">
-        <v>0.3730773731418104</v>
+        <v>0.3704682983285442</v>
       </c>
     </row>
     <row r="50">
@@ -4037,19 +4037,19 @@
         <v>204551</v>
       </c>
       <c r="E50" s="5" t="n">
-        <v>181479</v>
+        <v>178506</v>
       </c>
       <c r="F50" s="5" t="n">
-        <v>229434</v>
+        <v>228348</v>
       </c>
       <c r="G50" s="6" t="n">
         <v>0.2750093050948532</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>0.2439904314066096</v>
+        <v>0.239993144299865</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>0.3084635978841919</v>
+        <v>0.3070038211269626</v>
       </c>
       <c r="J50" s="5" t="n">
         <v>266</v>
@@ -4058,19 +4058,19 @@
         <v>280809</v>
       </c>
       <c r="L50" s="5" t="n">
-        <v>253330</v>
+        <v>253820</v>
       </c>
       <c r="M50" s="5" t="n">
-        <v>308253</v>
+        <v>312845</v>
       </c>
       <c r="N50" s="6" t="n">
         <v>0.3588834594169387</v>
       </c>
       <c r="O50" s="6" t="n">
-        <v>0.323764552283914</v>
+        <v>0.3243903251992119</v>
       </c>
       <c r="P50" s="6" t="n">
-        <v>0.3939579355282585</v>
+        <v>0.3998264424066736</v>
       </c>
       <c r="Q50" s="5" t="n">
         <v>470</v>
@@ -4079,19 +4079,19 @@
         <v>485359</v>
       </c>
       <c r="S50" s="5" t="n">
-        <v>443439</v>
+        <v>450569</v>
       </c>
       <c r="T50" s="5" t="n">
-        <v>518847</v>
+        <v>523902</v>
       </c>
       <c r="U50" s="6" t="n">
         <v>0.3180085443508712</v>
       </c>
       <c r="V50" s="6" t="n">
-        <v>0.2905424460714775</v>
+        <v>0.2952139868030165</v>
       </c>
       <c r="W50" s="6" t="n">
-        <v>0.3399496801848578</v>
+        <v>0.3432618862924143</v>
       </c>
     </row>
     <row r="51">
@@ -4183,19 +4183,19 @@
         <v>72877</v>
       </c>
       <c r="E52" s="5" t="n">
-        <v>57388</v>
+        <v>57058</v>
       </c>
       <c r="F52" s="5" t="n">
-        <v>91830</v>
+        <v>90849</v>
       </c>
       <c r="G52" s="6" t="n">
         <v>0.02224758188668367</v>
       </c>
       <c r="H52" s="6" t="n">
-        <v>0.01751937327724724</v>
+        <v>0.01741866342211635</v>
       </c>
       <c r="I52" s="6" t="n">
-        <v>0.02803366066549823</v>
+        <v>0.02773423531789415</v>
       </c>
       <c r="J52" s="5" t="n">
         <v>41</v>
@@ -4204,19 +4204,19 @@
         <v>41576</v>
       </c>
       <c r="L52" s="5" t="n">
-        <v>30512</v>
+        <v>30379</v>
       </c>
       <c r="M52" s="5" t="n">
-        <v>55415</v>
+        <v>57182</v>
       </c>
       <c r="N52" s="6" t="n">
         <v>0.01230732420657574</v>
       </c>
       <c r="O52" s="6" t="n">
-        <v>0.0090322567068701</v>
+        <v>0.008992883038614083</v>
       </c>
       <c r="P52" s="6" t="n">
-        <v>0.01640391561454857</v>
+        <v>0.01692702326660054</v>
       </c>
       <c r="Q52" s="5" t="n">
         <v>115</v>
@@ -4225,19 +4225,19 @@
         <v>114452</v>
       </c>
       <c r="S52" s="5" t="n">
-        <v>92428</v>
+        <v>94452</v>
       </c>
       <c r="T52" s="5" t="n">
-        <v>135847</v>
+        <v>134877</v>
       </c>
       <c r="U52" s="6" t="n">
         <v>0.01720094377874818</v>
       </c>
       <c r="V52" s="6" t="n">
-        <v>0.01389083863412923</v>
+        <v>0.01419510234584898</v>
       </c>
       <c r="W52" s="6" t="n">
-        <v>0.02041631669812656</v>
+        <v>0.02027057963323004</v>
       </c>
     </row>
     <row r="53">
@@ -4254,19 +4254,19 @@
         <v>227737</v>
       </c>
       <c r="E53" s="5" t="n">
-        <v>201802</v>
+        <v>201239</v>
       </c>
       <c r="F53" s="5" t="n">
-        <v>257842</v>
+        <v>257855</v>
       </c>
       <c r="G53" s="6" t="n">
         <v>0.06952306609342807</v>
       </c>
       <c r="H53" s="6" t="n">
-        <v>0.06160556891666689</v>
+        <v>0.06143376083134019</v>
       </c>
       <c r="I53" s="6" t="n">
-        <v>0.07871342143293031</v>
+        <v>0.07871742106184386</v>
       </c>
       <c r="J53" s="5" t="n">
         <v>143</v>
@@ -4275,19 +4275,19 @@
         <v>146558</v>
       </c>
       <c r="L53" s="5" t="n">
-        <v>124013</v>
+        <v>122715</v>
       </c>
       <c r="M53" s="5" t="n">
-        <v>172687</v>
+        <v>169042</v>
       </c>
       <c r="N53" s="6" t="n">
         <v>0.04338416658841816</v>
       </c>
       <c r="O53" s="6" t="n">
-        <v>0.03671036456833505</v>
+        <v>0.03632615217810829</v>
       </c>
       <c r="P53" s="6" t="n">
-        <v>0.05111895993243583</v>
+        <v>0.05004015338444891</v>
       </c>
       <c r="Q53" s="5" t="n">
         <v>367</v>
@@ -4296,19 +4296,19 @@
         <v>374295</v>
       </c>
       <c r="S53" s="5" t="n">
-        <v>335073</v>
+        <v>341554</v>
       </c>
       <c r="T53" s="5" t="n">
-        <v>413261</v>
+        <v>413717</v>
       </c>
       <c r="U53" s="6" t="n">
         <v>0.05625242758619303</v>
       </c>
       <c r="V53" s="6" t="n">
-        <v>0.05035784867796158</v>
+        <v>0.05133174000452867</v>
       </c>
       <c r="W53" s="6" t="n">
-        <v>0.06210858855591012</v>
+        <v>0.06217716048490731</v>
       </c>
     </row>
     <row r="54">
@@ -4325,19 +4325,19 @@
         <v>903964</v>
       </c>
       <c r="E54" s="5" t="n">
-        <v>855846</v>
+        <v>850740</v>
       </c>
       <c r="F54" s="5" t="n">
-        <v>955460</v>
+        <v>953208</v>
       </c>
       <c r="G54" s="6" t="n">
         <v>0.2759598947438901</v>
       </c>
       <c r="H54" s="6" t="n">
-        <v>0.2612703604668042</v>
+        <v>0.259711628170563</v>
       </c>
       <c r="I54" s="6" t="n">
-        <v>0.2916804788581751</v>
+        <v>0.290992802895282</v>
       </c>
       <c r="J54" s="5" t="n">
         <v>780</v>
@@ -4346,19 +4346,19 @@
         <v>788433</v>
       </c>
       <c r="L54" s="5" t="n">
-        <v>737195</v>
+        <v>741173</v>
       </c>
       <c r="M54" s="5" t="n">
-        <v>837713</v>
+        <v>836185</v>
       </c>
       <c r="N54" s="6" t="n">
         <v>0.2333929152320065</v>
       </c>
       <c r="O54" s="6" t="n">
-        <v>0.2182252385607393</v>
+        <v>0.2194027696530869</v>
       </c>
       <c r="P54" s="6" t="n">
-        <v>0.2479808690434957</v>
+        <v>0.2475283617997255</v>
       </c>
       <c r="Q54" s="5" t="n">
         <v>1665</v>
@@ -4367,19 +4367,19 @@
         <v>1692398</v>
       </c>
       <c r="S54" s="5" t="n">
-        <v>1624858</v>
+        <v>1620670</v>
       </c>
       <c r="T54" s="5" t="n">
-        <v>1767591</v>
+        <v>1758087</v>
       </c>
       <c r="U54" s="6" t="n">
         <v>0.2543487707813523</v>
       </c>
       <c r="V54" s="6" t="n">
-        <v>0.2441982682669872</v>
+        <v>0.2435688181775571</v>
       </c>
       <c r="W54" s="6" t="n">
-        <v>0.2656494061193888</v>
+        <v>0.2642211993156313</v>
       </c>
     </row>
     <row r="55">
@@ -4396,19 +4396,19 @@
         <v>1384429</v>
       </c>
       <c r="E55" s="5" t="n">
-        <v>1333699</v>
+        <v>1330762</v>
       </c>
       <c r="F55" s="5" t="n">
-        <v>1442273</v>
+        <v>1445909</v>
       </c>
       <c r="G55" s="6" t="n">
         <v>0.422634987314263</v>
       </c>
       <c r="H55" s="6" t="n">
-        <v>0.4071480844351833</v>
+        <v>0.4062514777558484</v>
       </c>
       <c r="I55" s="6" t="n">
-        <v>0.4402932889728612</v>
+        <v>0.4414035002830224</v>
       </c>
       <c r="J55" s="5" t="n">
         <v>1424</v>
@@ -4417,19 +4417,19 @@
         <v>1460208</v>
       </c>
       <c r="L55" s="5" t="n">
-        <v>1404558</v>
+        <v>1395700</v>
       </c>
       <c r="M55" s="5" t="n">
-        <v>1519051</v>
+        <v>1512589</v>
       </c>
       <c r="N55" s="6" t="n">
         <v>0.4322524563775726</v>
       </c>
       <c r="O55" s="6" t="n">
-        <v>0.4157788934013643</v>
+        <v>0.4131566988535063</v>
       </c>
       <c r="P55" s="6" t="n">
-        <v>0.4496713267678598</v>
+        <v>0.4477582278075399</v>
       </c>
       <c r="Q55" s="5" t="n">
         <v>2783</v>
@@ -4438,19 +4438,19 @@
         <v>2844638</v>
       </c>
       <c r="S55" s="5" t="n">
-        <v>2764469</v>
+        <v>2761294</v>
       </c>
       <c r="T55" s="5" t="n">
-        <v>2917745</v>
+        <v>2924166</v>
       </c>
       <c r="U55" s="6" t="n">
         <v>0.4275177466388947</v>
       </c>
       <c r="V55" s="6" t="n">
-        <v>0.4154693149428271</v>
+        <v>0.4149920450093524</v>
       </c>
       <c r="W55" s="6" t="n">
-        <v>0.4385050094211628</v>
+        <v>0.4394699334132656</v>
       </c>
     </row>
     <row r="56">
@@ -4467,19 +4467,19 @@
         <v>686702</v>
       </c>
       <c r="E56" s="5" t="n">
-        <v>640876</v>
+        <v>638256</v>
       </c>
       <c r="F56" s="5" t="n">
-        <v>730244</v>
+        <v>731651</v>
       </c>
       <c r="G56" s="6" t="n">
         <v>0.2096344699617352</v>
       </c>
       <c r="H56" s="6" t="n">
-        <v>0.1956448754905807</v>
+        <v>0.1948450601177918</v>
       </c>
       <c r="I56" s="6" t="n">
-        <v>0.2229271383563823</v>
+        <v>0.2233566821408272</v>
       </c>
       <c r="J56" s="5" t="n">
         <v>908</v>
@@ -4488,19 +4488,19 @@
         <v>941362</v>
       </c>
       <c r="L56" s="5" t="n">
-        <v>884049</v>
+        <v>888893</v>
       </c>
       <c r="M56" s="5" t="n">
-        <v>992730</v>
+        <v>996748</v>
       </c>
       <c r="N56" s="6" t="n">
         <v>0.278663137595427</v>
       </c>
       <c r="O56" s="6" t="n">
-        <v>0.261697149029724</v>
+        <v>0.2631312348683095</v>
       </c>
       <c r="P56" s="6" t="n">
-        <v>0.2938691156839452</v>
+        <v>0.2950584840643686</v>
       </c>
       <c r="Q56" s="5" t="n">
         <v>1579</v>
@@ -4509,19 +4509,19 @@
         <v>1628064</v>
       </c>
       <c r="S56" s="5" t="n">
-        <v>1555063</v>
+        <v>1564830</v>
       </c>
       <c r="T56" s="5" t="n">
-        <v>1703703</v>
+        <v>1702685</v>
       </c>
       <c r="U56" s="6" t="n">
         <v>0.2446801112148118</v>
       </c>
       <c r="V56" s="6" t="n">
-        <v>0.2337088436282282</v>
+        <v>0.2351767549647407</v>
       </c>
       <c r="W56" s="6" t="n">
-        <v>0.2560478895813975</v>
+        <v>0.2558947600376924</v>
       </c>
     </row>
     <row r="57">
@@ -4857,19 +4857,19 @@
         <v>8200</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>4374</v>
+        <v>3655</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>15453</v>
+        <v>14907</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.02782053842900054</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01483875516009126</v>
+        <v>0.01240031947417631</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.05242976407286108</v>
+        <v>0.05057733116964484</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>13</v>
@@ -4878,19 +4878,19 @@
         <v>14272</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>8089</v>
+        <v>8025</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>24126</v>
+        <v>24139</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.0500417028693137</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.02836222123872684</v>
+        <v>0.02813704915579618</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.08459247616831264</v>
+        <v>0.08463987886008462</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>22</v>
@@ -4899,19 +4899,19 @@
         <v>22472</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>14255</v>
+        <v>15089</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>33508</v>
+        <v>34276</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.03874841464703304</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.02458103069819723</v>
+        <v>0.02601750009648766</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.05777904402557241</v>
+        <v>0.05910362441411601</v>
       </c>
     </row>
     <row r="5">
@@ -4928,19 +4928,19 @@
         <v>10216</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>5348</v>
+        <v>5487</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>17621</v>
+        <v>16833</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.03466013749062453</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.01814392765242246</v>
+        <v>0.01861702819709414</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.05978510580884376</v>
+        <v>0.05711321394985975</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>9</v>
@@ -4949,19 +4949,19 @@
         <v>9072</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>4894</v>
+        <v>4016</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>17165</v>
+        <v>15350</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.03180868954901406</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.01715878900874505</v>
+        <v>0.01408255094278936</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.06018411792472982</v>
+        <v>0.05382046386291657</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>20</v>
@@ -4970,19 +4970,19 @@
         <v>19288</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>12299</v>
+        <v>12460</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>28883</v>
+        <v>28840</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.03325785858522421</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.02120725093912867</v>
+        <v>0.0214847973775864</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.04980334340755641</v>
+        <v>0.04972935266749376</v>
       </c>
     </row>
     <row r="6">
@@ -4999,19 +4999,19 @@
         <v>66369</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>52587</v>
+        <v>52536</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>82778</v>
+        <v>81336</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2251786678949555</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1784202440976033</v>
+        <v>0.1782472885837829</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2808518435461292</v>
+        <v>0.2759596820936435</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>32</v>
@@ -5020,19 +5020,19 @@
         <v>36752</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>25840</v>
+        <v>25492</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>50604</v>
+        <v>49581</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1288637684899746</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.09060134026532472</v>
+        <v>0.08938163686935163</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1774314642157594</v>
+        <v>0.1738441242854522</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>97</v>
@@ -5041,19 +5041,19 @@
         <v>103121</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>85083</v>
+        <v>85310</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>126023</v>
+        <v>123348</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1778131348475321</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1467109535277983</v>
+        <v>0.1471021717018169</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2173042484758978</v>
+        <v>0.2126909985204276</v>
       </c>
     </row>
     <row r="7">
@@ -5070,19 +5070,19 @@
         <v>96065</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>77720</v>
+        <v>79158</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>112834</v>
+        <v>112064</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.3259341913478282</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2636920171210524</v>
+        <v>0.268570254471617</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3828277295498171</v>
+        <v>0.3802151504467023</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>64</v>
@@ -5091,19 +5091,19 @@
         <v>70254</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>56339</v>
+        <v>55925</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>84798</v>
+        <v>86566</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2463312673576429</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1975414750496017</v>
+        <v>0.196090625903972</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2973263480493969</v>
+        <v>0.303525614820314</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>152</v>
@@ -5112,19 +5112,19 @@
         <v>166319</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>144609</v>
+        <v>142554</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>192561</v>
+        <v>189055</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2867872374474261</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2493523556457719</v>
+        <v>0.2458093358457649</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3320358463011156</v>
+        <v>0.3259913351327876</v>
       </c>
     </row>
     <row r="8">
@@ -5141,19 +5141,19 @@
         <v>113889</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>97568</v>
+        <v>97782</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>131501</v>
+        <v>131884</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.3864064648375912</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.3310328048584643</v>
+        <v>0.3317583459568276</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.4461621495656031</v>
+        <v>0.4474619855753636</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>136</v>
@@ -5162,19 +5162,19 @@
         <v>154851</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>137618</v>
+        <v>137919</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>171838</v>
+        <v>173093</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.5429545717340547</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.48253051358495</v>
+        <v>0.4835849519013199</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.6025140081564182</v>
+        <v>0.6069168503051598</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>245</v>
@@ -5183,19 +5183,19 @@
         <v>268740</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>243852</v>
+        <v>244128</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>295607</v>
+        <v>295134</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.4633933544727846</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.4204788835608355</v>
+        <v>0.4209549094769837</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.5097213730425406</v>
+        <v>0.5089055800592784</v>
       </c>
     </row>
     <row r="9">
@@ -5287,19 +5287,19 @@
         <v>13469</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>7585</v>
+        <v>7739</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>21497</v>
+        <v>21803</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.02664427366854511</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01500440076200872</v>
+        <v>0.0153093090737457</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.04252323507318851</v>
+        <v>0.04312966684904088</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>8</v>
@@ -5308,19 +5308,19 @@
         <v>8031</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>3882</v>
+        <v>3941</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>15020</v>
+        <v>15059</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.01533282832134332</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.007411579046869779</v>
+        <v>0.00752437642002688</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.02867734073928498</v>
+        <v>0.02875133613375742</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>22</v>
@@ -5329,19 +5329,19 @@
         <v>21500</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>13713</v>
+        <v>14338</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>31982</v>
+        <v>32318</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.02088833879524009</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01332260037874676</v>
+        <v>0.013929816722695</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.03107214287499965</v>
+        <v>0.03139844048394789</v>
       </c>
     </row>
     <row r="11">
@@ -5358,19 +5358,19 @@
         <v>25900</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>16825</v>
+        <v>17294</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>36270</v>
+        <v>37264</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.05123290780030007</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.03328113044941115</v>
+        <v>0.03421063511263649</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.07174735973224233</v>
+        <v>0.07371238787180646</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>18</v>
@@ -5379,19 +5379,19 @@
         <v>18514</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>11064</v>
+        <v>11329</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>28912</v>
+        <v>28618</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.03534793828654196</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.02112371330119767</v>
+        <v>0.02162935046196112</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.05520097100603254</v>
+        <v>0.0546395982974657</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>44</v>
@@ -5400,19 +5400,19 @@
         <v>44414</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>32513</v>
+        <v>32748</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>58730</v>
+        <v>59622</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.0431496923332116</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.03158735767603069</v>
+        <v>0.03181642236585355</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.05705875560456932</v>
+        <v>0.05792537213134906</v>
       </c>
     </row>
     <row r="12">
@@ -5429,19 +5429,19 @@
         <v>182338</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>160421</v>
+        <v>158735</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>204798</v>
+        <v>203517</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.3606890048027558</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.3173332805695937</v>
+        <v>0.3139998203007063</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.4051187972852646</v>
+        <v>0.4025841570081019</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>134</v>
@@ -5450,19 +5450,19 @@
         <v>144077</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>124301</v>
+        <v>124367</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>165061</v>
+        <v>166339</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.2750800401047531</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.237321217226394</v>
+        <v>0.2374480805461027</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.3151436055323944</v>
+        <v>0.3175838617130932</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>305</v>
@@ -5471,19 +5471,19 @@
         <v>326415</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>296745</v>
+        <v>295195</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>358274</v>
+        <v>356986</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.3171260815645977</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.2883003172322701</v>
+        <v>0.2867942619370337</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.3480785564594836</v>
+        <v>0.3468264115073733</v>
       </c>
     </row>
     <row r="13">
@@ -5500,19 +5500,19 @@
         <v>208142</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>185704</v>
+        <v>185379</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>231085</v>
+        <v>231938</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.4117323105647456</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.3673479495121693</v>
+        <v>0.366704110342232</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.4571166377324578</v>
+        <v>0.4588048368438271</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>223</v>
@@ -5521,19 +5521,19 @@
         <v>245243</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>220744</v>
+        <v>221817</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>270094</v>
+        <v>270260</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.4682311227723803</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.4214560997742439</v>
+        <v>0.4235049609446681</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.5156772553997591</v>
+        <v>0.5159938146178898</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>415</v>
@@ -5542,19 +5542,19 @@
         <v>453385</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>421549</v>
+        <v>422270</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>486247</v>
+        <v>485423</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.4404822601515758</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.409552776920767</v>
+        <v>0.4102529972586226</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.4724089751971839</v>
+        <v>0.4716084797254464</v>
       </c>
     </row>
     <row r="14">
@@ -5571,19 +5571,19 @@
         <v>75678</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>59835</v>
+        <v>60315</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>93835</v>
+        <v>94445</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1497015031636534</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1183615136508775</v>
+        <v>0.1193110068017648</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.185617975522126</v>
+        <v>0.1868246946997255</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>97</v>
@@ -5592,19 +5592,19 @@
         <v>107900</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>89076</v>
+        <v>90345</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>130258</v>
+        <v>129077</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.2060080705149814</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1700690388815215</v>
+        <v>0.1724909578553427</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2486955659388589</v>
+        <v>0.2464404085068327</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>166</v>
@@ -5613,19 +5613,19 @@
         <v>183578</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>160232</v>
+        <v>158649</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>208733</v>
+        <v>210351</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1783536271553748</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1556719942157387</v>
+        <v>0.1541342551719246</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2027928705624296</v>
+        <v>0.2043647466975752</v>
       </c>
     </row>
     <row r="15">
@@ -5720,7 +5720,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>6599</v>
+        <v>5735</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.005843532134702642</v>
@@ -5729,7 +5729,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.02042817843088219</v>
+        <v>0.0177543369210005</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>0</v>
@@ -5754,7 +5754,7 @@
         <v>0</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>6590</v>
+        <v>6646</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.002842558503690056</v>
@@ -5763,7 +5763,7 @@
         <v>0</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.009924708876575664</v>
+        <v>0.01000885175879692</v>
       </c>
     </row>
     <row r="17">
@@ -5780,19 +5780,19 @@
         <v>8800</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3953</v>
+        <v>4809</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>15597</v>
+        <v>16034</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.0272416437279886</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.01223900231148375</v>
+        <v>0.01488902814416172</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.04828469042774725</v>
+        <v>0.04963709569147203</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>5</v>
@@ -5801,19 +5801,19 @@
         <v>5903</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>1994</v>
+        <v>2031</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>13704</v>
+        <v>14775</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.01731005901102304</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.005846425889053227</v>
+        <v>0.005955049365808938</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.04018632708124009</v>
+        <v>0.04332497991620265</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>14</v>
@@ -5822,19 +5822,19 @@
         <v>14703</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>8697</v>
+        <v>7877</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>23205</v>
+        <v>23726</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.02214123131256207</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.01309744358150434</v>
+        <v>0.01186205788616122</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.03494597893861726</v>
+        <v>0.03573034518571031</v>
       </c>
     </row>
     <row r="18">
@@ -5851,19 +5851,19 @@
         <v>53835</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>42063</v>
+        <v>41158</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>68599</v>
+        <v>66642</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.1666617304365797</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1302202929289471</v>
+        <v>0.1274167285700452</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.2123689648756078</v>
+        <v>0.2063106420153773</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>39</v>
@@ -5872,19 +5872,19 @@
         <v>42137</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>31279</v>
+        <v>30350</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>57508</v>
+        <v>56368</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.1235627068237395</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.0917204582331973</v>
+        <v>0.08899900911949649</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.1686364250633506</v>
+        <v>0.1652928914910624</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>93</v>
@@ -5893,19 +5893,19 @@
         <v>95972</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>80718</v>
+        <v>77077</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>117953</v>
+        <v>114966</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.14452802253474</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.1215559749899826</v>
+        <v>0.1160732721480575</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.1776292363290977</v>
+        <v>0.1731314865791552</v>
       </c>
     </row>
     <row r="19">
@@ -5922,19 +5922,19 @@
         <v>75257</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>61224</v>
+        <v>61322</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>90886</v>
+        <v>90906</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2329800356640122</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1895382941311707</v>
+        <v>0.1898405447598832</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2813639763979826</v>
+        <v>0.2814256787601217</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>49</v>
@@ -5943,19 +5943,19 @@
         <v>52260</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>38520</v>
+        <v>39369</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>67418</v>
+        <v>67743</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1532468484473597</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1129554004352811</v>
+        <v>0.1154458403001976</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1976957473772097</v>
+        <v>0.198649375114021</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>125</v>
@@ -5964,19 +5964,19 @@
         <v>127517</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>108082</v>
+        <v>109686</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>149267</v>
+        <v>148922</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1920326793668195</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1627642018018096</v>
+        <v>0.1651807054205655</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2247868770222184</v>
+        <v>0.2242675654582589</v>
       </c>
     </row>
     <row r="20">
@@ -5993,19 +5993,19 @@
         <v>183239</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>166460</v>
+        <v>165683</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>201769</v>
+        <v>200751</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.5672730580367169</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.5153285595780787</v>
+        <v>0.5129219506626166</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.624638313090612</v>
+        <v>0.6214844799895826</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>224</v>
@@ -6014,19 +6014,19 @@
         <v>240719</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>223535</v>
+        <v>221438</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>257341</v>
+        <v>258063</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.7058803857178778</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.6554894716102276</v>
+        <v>0.6493403253736494</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.7546217674788448</v>
+        <v>0.7567375741130568</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>401</v>
@@ -6035,19 +6035,19 @@
         <v>423959</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>397070</v>
+        <v>396732</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>446653</v>
+        <v>448433</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.6384555082821884</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.5979624675675231</v>
+        <v>0.5974536544742188</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.6726314116603999</v>
+        <v>0.6753128584822166</v>
       </c>
     </row>
     <row r="21">
@@ -6139,19 +6139,19 @@
         <v>7492</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>2463</v>
+        <v>2221</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>18642</v>
+        <v>18996</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.02003277367810959</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.006585957625139468</v>
+        <v>0.005939537946394476</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.0498471735671794</v>
+        <v>0.05079463624776008</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>2</v>
@@ -6163,7 +6163,7 @@
         <v>0</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>7095</v>
+        <v>6392</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.004607093886015023</v>
@@ -6172,7 +6172,7 @@
         <v>0</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.01824034848733326</v>
+        <v>0.01643367542976256</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>7</v>
@@ -6181,19 +6181,19 @@
         <v>9284</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>3743</v>
+        <v>4007</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>19996</v>
+        <v>20207</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.01216860651543634</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.004906560909656918</v>
+        <v>0.005252269647947014</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.02620951177561958</v>
+        <v>0.02648605043313091</v>
       </c>
     </row>
     <row r="23">
@@ -6210,19 +6210,19 @@
         <v>12310</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>6206</v>
+        <v>6132</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>22208</v>
+        <v>22007</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.03291499740418298</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.01659534177377347</v>
+        <v>0.01639647980463878</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.05938373344381173</v>
+        <v>0.05884545421830539</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>7</v>
@@ -6231,19 +6231,19 @@
         <v>7106</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>2979</v>
+        <v>2963</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>14302</v>
+        <v>14321</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.01826988321531632</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.007658621035919111</v>
+        <v>0.0076187375466636</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.03677175534281907</v>
+        <v>0.03682015461850689</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>17</v>
@@ -6252,19 +6252,19 @@
         <v>19416</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>11537</v>
+        <v>11137</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>32927</v>
+        <v>30446</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.02544877045989564</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.01512192351597062</v>
+        <v>0.01459730866812845</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.04315801928645733</v>
+        <v>0.03990691012439984</v>
       </c>
     </row>
     <row r="24">
@@ -6281,19 +6281,19 @@
         <v>60773</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>47170</v>
+        <v>46784</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>76431</v>
+        <v>77204</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1625014355738445</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1261284569064798</v>
+        <v>0.1250966473442286</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.2043696352174693</v>
+        <v>0.2064379392234551</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>46</v>
@@ -6302,19 +6302,19 @@
         <v>47283</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>35244</v>
+        <v>35509</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>62287</v>
+        <v>60722</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1215650108734385</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.09061384230486129</v>
+        <v>0.09129524989153555</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1601414999003573</v>
+        <v>0.156116080229519</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>101</v>
@@ -6323,19 +6323,19 @@
         <v>108055</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>91297</v>
+        <v>88429</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>129469</v>
+        <v>128427</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1416316333203863</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1196653023774781</v>
+        <v>0.1159065026960488</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1696986187041029</v>
+        <v>0.1683330192425564</v>
       </c>
     </row>
     <row r="25">
@@ -6352,19 +6352,19 @@
         <v>153315</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>134039</v>
+        <v>133434</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>173091</v>
+        <v>174077</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.4099539021970457</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.3584110943214681</v>
+        <v>0.3567930708624195</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.4628317090445552</v>
+        <v>0.465467767342942</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>126</v>
@@ -6373,19 +6373,19 @@
         <v>131600</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>113251</v>
+        <v>112738</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>150670</v>
+        <v>150137</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.3383456236499682</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2911704583378256</v>
+        <v>0.2898522721242502</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.3873753638152891</v>
+        <v>0.3860058996537061</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>270</v>
@@ -6394,19 +6394,19 @@
         <v>284915</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>259115</v>
+        <v>260519</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>311757</v>
+        <v>312080</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.3734472794539698</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.3396305081442966</v>
+        <v>0.3414707169722068</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.4086290300728512</v>
+        <v>0.4090528858946736</v>
       </c>
     </row>
     <row r="26">
@@ -6423,19 +6423,19 @@
         <v>140092</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>119256</v>
+        <v>119972</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>157761</v>
+        <v>159929</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.3745968911468172</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.3188827539184767</v>
+        <v>0.3207965936988082</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.4218400179994981</v>
+        <v>0.427638739887696</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>190</v>
@@ -6444,19 +6444,19 @@
         <v>201170</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>181786</v>
+        <v>181748</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>223381</v>
+        <v>221053</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.517212388375262</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.4673746713975622</v>
+        <v>0.4672762916324714</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.5743170406900528</v>
+        <v>0.5683320787262846</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>320</v>
@@ -6465,19 +6465,19 @@
         <v>341263</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>313447</v>
+        <v>314797</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>371177</v>
+        <v>369571</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.4473037102503119</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.4108452895031372</v>
+        <v>0.4126145019148786</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.4865128866033284</v>
+        <v>0.4844083231977996</v>
       </c>
     </row>
     <row r="27">
@@ -6569,19 +6569,19 @@
         <v>2896</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>901</v>
+        <v>912</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>7797</v>
+        <v>7942</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.01362085129621742</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.004236005098803819</v>
+        <v>0.004291507206823129</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.03667206249334104</v>
+        <v>0.03735232555091187</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>3</v>
@@ -6590,19 +6590,19 @@
         <v>2987</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>879</v>
+        <v>892</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>7994</v>
+        <v>8439</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.01360360621800437</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.004003365429900024</v>
+        <v>0.004061180019302178</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.03640268645968949</v>
+        <v>0.0384289260011883</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>6</v>
@@ -6611,19 +6611,19 @@
         <v>5883</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>2044</v>
+        <v>2054</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>12456</v>
+        <v>11898</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.01361208964705007</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.004730119387245369</v>
+        <v>0.004751578597522572</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.02882010249212053</v>
+        <v>0.02752898489320485</v>
       </c>
     </row>
     <row r="29">
@@ -6640,19 +6640,19 @@
         <v>17952</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>10583</v>
+        <v>10311</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>28765</v>
+        <v>27416</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.08443388717178905</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.04977285846734487</v>
+        <v>0.04849649580328318</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.1352904750133848</v>
+        <v>0.1289462968036399</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>13</v>
@@ -6661,19 +6661,19 @@
         <v>13629</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>7375</v>
+        <v>6610</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>22257</v>
+        <v>21356</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.06206475037452016</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.03358598243761263</v>
+        <v>0.03010134002021378</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.1013574118249813</v>
+        <v>0.09725191752951289</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>29</v>
@@ -6682,19 +6682,19 @@
         <v>31581</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>22562</v>
+        <v>21491</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>44166</v>
+        <v>44055</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.0730688747100935</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.05220245484803281</v>
+        <v>0.04972468990405531</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.1021873548646133</v>
+        <v>0.1019293324545549</v>
       </c>
     </row>
     <row r="30">
@@ -6711,19 +6711,19 @@
         <v>55584</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>43655</v>
+        <v>43211</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>68426</v>
+        <v>69447</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.2614280651495966</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.2053216293266266</v>
+        <v>0.2032322077670772</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.3218264853474669</v>
+        <v>0.3266293218818976</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>39</v>
@@ -6732,19 +6732,19 @@
         <v>42258</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>31194</v>
+        <v>30973</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>55749</v>
+        <v>55840</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.1924396765251733</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1420535337974953</v>
+        <v>0.141050726912427</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.2538756959354586</v>
+        <v>0.2542901740584838</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>91</v>
@@ -6753,19 +6753,19 @@
         <v>97842</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>80807</v>
+        <v>81424</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>116512</v>
+        <v>117556</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.2263773654496156</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.1869632055107159</v>
+        <v>0.1883903192216637</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.2695742476488002</v>
+        <v>0.2719897684754033</v>
       </c>
     </row>
     <row r="31">
@@ -6782,19 +6782,19 @@
         <v>81826</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>67003</v>
+        <v>68430</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>95496</v>
+        <v>97578</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.3848495539108791</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.3151348866412632</v>
+        <v>0.3218459492564795</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.4491451724229218</v>
+        <v>0.4589373668353828</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>89</v>
@@ -6803,19 +6803,19 @@
         <v>90449</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>74847</v>
+        <v>76759</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>104478</v>
+        <v>104570</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.4118993535951661</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.3408452226552718</v>
+        <v>0.3495560872436366</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.4757846721234929</v>
+        <v>0.4762056492083226</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>162</v>
@@ -6824,19 +6824,19 @@
         <v>172275</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>151798</v>
+        <v>151862</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>192950</v>
+        <v>193616</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.398592655099112</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.3512154738848203</v>
+        <v>0.3513625075429734</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.4464286772126614</v>
+        <v>0.447969384237629</v>
       </c>
     </row>
     <row r="32">
@@ -6853,19 +6853,19 @@
         <v>54360</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>42606</v>
+        <v>42817</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>67676</v>
+        <v>68089</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.2556676424715178</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.2003872942335683</v>
+        <v>0.2013809944513491</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.3182987527443185</v>
+        <v>0.3202430463778344</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>68</v>
@@ -6874,19 +6874,19 @@
         <v>70267</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>57609</v>
+        <v>56525</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>85466</v>
+        <v>84002</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.319992613287136</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.2623456211815713</v>
+        <v>0.2574086466991341</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.3892033710065586</v>
+        <v>0.3825367966114063</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>120</v>
@@ -6895,19 +6895,19 @@
         <v>124627</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>106121</v>
+        <v>106019</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>143408</v>
+        <v>144979</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.2883490150941288</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.2455324666005943</v>
+        <v>0.2452966997440982</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.3318022504494133</v>
+        <v>0.3354367893096347</v>
       </c>
     </row>
     <row r="33">
@@ -6999,19 +6999,19 @@
         <v>3692</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>897</v>
+        <v>1031</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>8456</v>
+        <v>9262</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.01347625291442327</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.003273762063009505</v>
+        <v>0.00376227521043474</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.03086269366075211</v>
+        <v>0.03380707441398176</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>2</v>
@@ -7023,7 +7023,7 @@
         <v>0</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>6823</v>
+        <v>7318</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.007016992027062122</v>
@@ -7032,7 +7032,7 @@
         <v>0</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.02453394080992729</v>
+        <v>0.02631558821812976</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>6</v>
@@ -7041,19 +7041,19 @@
         <v>5644</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>1950</v>
+        <v>1928</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>11606</v>
+        <v>11337</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.01022255134701181</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.003531333372427569</v>
+        <v>0.003492655448630841</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.02102234588768846</v>
+        <v>0.02053591899899196</v>
       </c>
     </row>
     <row r="35">
@@ -7070,19 +7070,19 @@
         <v>17489</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>10411</v>
+        <v>10751</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>26405</v>
+        <v>25653</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.06383259367129668</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.03799740187523264</v>
+        <v>0.03924154173146031</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.09637627030377524</v>
+        <v>0.09363217179571989</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>9</v>
@@ -7091,19 +7091,19 @@
         <v>9112</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>4766</v>
+        <v>4135</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>16301</v>
+        <v>17363</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.03276595640985764</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.01713720845468697</v>
+        <v>0.01486724187894213</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.0586175363305087</v>
+        <v>0.06243451414996948</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>27</v>
@@ -7112,19 +7112,19 @@
         <v>26601</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>17235</v>
+        <v>18491</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>37287</v>
+        <v>38441</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.04818350190763466</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.0312178398011045</v>
+        <v>0.03349411977531585</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.06753899528807357</v>
+        <v>0.06962970487707652</v>
       </c>
     </row>
     <row r="36">
@@ -7141,19 +7141,19 @@
         <v>54302</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>42417</v>
+        <v>41153</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>68687</v>
+        <v>67332</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.1981955491863406</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.1548176925728011</v>
+        <v>0.1502027265355499</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.2506993148973909</v>
+        <v>0.245755909041105</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>34</v>
@@ -7162,19 +7162,19 @@
         <v>35315</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>25846</v>
+        <v>24639</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>48372</v>
+        <v>47928</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.1269877520580811</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.09293952296493176</v>
+        <v>0.08859762071462157</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.1739400454404607</v>
+        <v>0.1723441044569828</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>86</v>
@@ -7183,19 +7183,19 @@
         <v>89617</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>72173</v>
+        <v>73449</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>108344</v>
+        <v>109152</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.1623262871812276</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.130729278271854</v>
+        <v>0.1330407831371396</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.1962474526535271</v>
+        <v>0.1977121362147441</v>
       </c>
     </row>
     <row r="37">
@@ -7212,19 +7212,19 @@
         <v>50650</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>38221</v>
+        <v>37960</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>65745</v>
+        <v>64908</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.184866016245439</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.1395034241920649</v>
+        <v>0.1385484891562313</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.2399631391483409</v>
+        <v>0.2369074124806846</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>62</v>
@@ -7233,19 +7233,19 @@
         <v>64715</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>51090</v>
+        <v>50913</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>80005</v>
+        <v>78538</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.2327076927779975</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.1837127616201917</v>
+        <v>0.1830776215960826</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.2876871979698997</v>
+        <v>0.2824138887920589</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>109</v>
@@ -7254,19 +7254,19 @@
         <v>115365</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>97367</v>
+        <v>96782</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>135766</v>
+        <v>135633</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.2089651416153654</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.1763643272260967</v>
+        <v>0.1753050298623212</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.2459179616810022</v>
+        <v>0.2456776154230347</v>
       </c>
     </row>
     <row r="38">
@@ -7283,19 +7283,19 @@
         <v>147848</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>131632</v>
+        <v>130888</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>164533</v>
+        <v>165437</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.5396295879825005</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.4804423658284997</v>
+        <v>0.4777267608089589</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.6005254478731031</v>
+        <v>0.6038275588542521</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>161</v>
@@ -7304,19 +7304,19 @@
         <v>167003</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>151075</v>
+        <v>150501</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>183731</v>
+        <v>183861</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.6005216067270016</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.5432479573204692</v>
+        <v>0.5411841539041315</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.6606763758467651</v>
+        <v>0.6611438949021138</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>301</v>
@@ -7325,19 +7325,19 @@
         <v>314851</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>291866</v>
+        <v>289438</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>338708</v>
+        <v>336947</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.5703025179487605</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.5286691368352412</v>
+        <v>0.5242710341994617</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.6135153282591883</v>
+        <v>0.6103253331620833</v>
       </c>
     </row>
     <row r="39">
@@ -7429,19 +7429,19 @@
         <v>6636</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>2806</v>
+        <v>2788</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>13351</v>
+        <v>13286</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.0100911698879223</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.004266628642608424</v>
+        <v>0.004239123010788001</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.02030148103434268</v>
+        <v>0.02020310157774886</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>4</v>
@@ -7450,19 +7450,19 @@
         <v>4106</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>1036</v>
+        <v>1049</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>10390</v>
+        <v>11228</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.005958029630031737</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.001503406617060458</v>
+        <v>0.00152155623754035</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.01507715606725084</v>
+        <v>0.0162923212996426</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>11</v>
@@ -7471,19 +7471,19 @@
         <v>10742</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>5791</v>
+        <v>5061</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>18076</v>
+        <v>18563</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.007976246832576203</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.004299757021914727</v>
+        <v>0.00375819428039701</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.01342148251008607</v>
+        <v>0.01378342643945776</v>
       </c>
     </row>
     <row r="41">
@@ -7500,19 +7500,19 @@
         <v>26514</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>17465</v>
+        <v>17266</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>38743</v>
+        <v>39424</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.04031629695022701</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.02655779149458147</v>
+        <v>0.02625386296196244</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.05891176167945575</v>
+        <v>0.05994828930371923</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>18</v>
@@ -7521,19 +7521,19 @@
         <v>20395</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>12229</v>
+        <v>12662</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>31637</v>
+        <v>32225</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.02959396938940074</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.01774570751091856</v>
+        <v>0.01837372931516852</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.04590716882671215</v>
+        <v>0.0467605395207091</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>43</v>
@@ -7542,19 +7542,19 @@
         <v>46908</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>34920</v>
+        <v>34976</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>64713</v>
+        <v>64236</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.03482969442758772</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.0259282472651588</v>
+        <v>0.0259702897240493</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.04804991746783843</v>
+        <v>0.0476956712121676</v>
       </c>
     </row>
     <row r="42">
@@ -7571,19 +7571,19 @@
         <v>137275</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>116020</v>
+        <v>116298</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>159867</v>
+        <v>159300</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.2087388153032011</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.1764185685907662</v>
+        <v>0.1768419536386494</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.2430925870799481</v>
+        <v>0.2422306246793834</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>92</v>
@@ -7592,19 +7592,19 @@
         <v>97263</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>79814</v>
+        <v>79214</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>117082</v>
+        <v>116999</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.1411352239308754</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.1158147020101912</v>
+        <v>0.1149438530599168</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.1698933292833271</v>
+        <v>0.169773564995082</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>222</v>
@@ -7613,19 +7613,19 @@
         <v>234538</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>204234</v>
+        <v>206741</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>263115</v>
+        <v>264031</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.1741461363481203</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.1516455657908685</v>
+        <v>0.1535066845777404</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.1953650056368716</v>
+        <v>0.1960448707358131</v>
       </c>
     </row>
     <row r="43">
@@ -7642,19 +7642,19 @@
         <v>214776</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>188260</v>
+        <v>189530</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>242695</v>
+        <v>239612</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.326587335297794</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.2862672908387059</v>
+        <v>0.2881980309900378</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.3690400124233709</v>
+        <v>0.3643525908917901</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>171</v>
@@ -7663,19 +7663,19 @@
         <v>191591</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>167482</v>
+        <v>167568</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>219929</v>
+        <v>216499</v>
       </c>
       <c r="N43" s="6" t="n">
         <v>0.2780106672279543</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.2430266397274192</v>
+        <v>0.2431515057021101</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.3191303195401465</v>
+        <v>0.3141543171411693</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>366</v>
@@ -7684,19 +7684,19 @@
         <v>406367</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>370447</v>
+        <v>371851</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>444431</v>
+        <v>443878</v>
       </c>
       <c r="U43" s="6" t="n">
         <v>0.3017307108324941</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.2750598976469246</v>
+        <v>0.2761023708293983</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.3299930432837139</v>
+        <v>0.3295825636241052</v>
       </c>
     </row>
     <row r="44">
@@ -7713,19 +7713,19 @@
         <v>272437</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>248169</v>
+        <v>246835</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>300624</v>
+        <v>298811</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.4142663825608556</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.3773637980135415</v>
+        <v>0.3753358049325445</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.4571274325670426</v>
+        <v>0.4543706091200298</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>348</v>
@@ -7734,19 +7734,19 @@
         <v>375795</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>350041</v>
+        <v>350421</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>403271</v>
+        <v>403780</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.5453021098217379</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.5079311346338808</v>
+        <v>0.5084830099059239</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.5851718193291784</v>
+        <v>0.5859101232652049</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>604</v>
@@ -7755,19 +7755,19 @@
         <v>648232</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>607630</v>
+        <v>611751</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>685190</v>
+        <v>688082</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.4813172115592216</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.4511694277136087</v>
+        <v>0.4542293273344123</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.5087582757461341</v>
+        <v>0.5109057370079904</v>
       </c>
     </row>
     <row r="45">
@@ -7859,19 +7859,19 @@
         <v>11333</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>6153</v>
+        <v>6164</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>19766</v>
+        <v>19830</v>
       </c>
       <c r="G46" s="6" t="n">
         <v>0.01456612366379482</v>
       </c>
       <c r="H46" s="6" t="n">
-        <v>0.007908559299780052</v>
+        <v>0.00792220812126185</v>
       </c>
       <c r="I46" s="6" t="n">
-        <v>0.02540412111314112</v>
+        <v>0.02548600565877849</v>
       </c>
       <c r="J46" s="5" t="n">
         <v>3</v>
@@ -7880,19 +7880,19 @@
         <v>3312</v>
       </c>
       <c r="L46" s="5" t="n">
-        <v>1058</v>
+        <v>1054</v>
       </c>
       <c r="M46" s="5" t="n">
-        <v>8900</v>
+        <v>8555</v>
       </c>
       <c r="N46" s="6" t="n">
         <v>0.004025203992354165</v>
       </c>
       <c r="O46" s="6" t="n">
-        <v>0.001286523538883791</v>
+        <v>0.00128060391662964</v>
       </c>
       <c r="P46" s="6" t="n">
-        <v>0.01081818273064851</v>
+        <v>0.01039824495079928</v>
       </c>
       <c r="Q46" s="5" t="n">
         <v>14</v>
@@ -7901,19 +7901,19 @@
         <v>14645</v>
       </c>
       <c r="S46" s="5" t="n">
-        <v>8249</v>
+        <v>8240</v>
       </c>
       <c r="T46" s="5" t="n">
-        <v>23652</v>
+        <v>24031</v>
       </c>
       <c r="U46" s="6" t="n">
         <v>0.00914870693045863</v>
       </c>
       <c r="V46" s="6" t="n">
-        <v>0.005153024825012633</v>
+        <v>0.00514732344783373</v>
       </c>
       <c r="W46" s="6" t="n">
-        <v>0.01477539665081545</v>
+        <v>0.01501236726878085</v>
       </c>
     </row>
     <row r="47">
@@ -7930,19 +7930,19 @@
         <v>29544</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>19529</v>
+        <v>19393</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>42678</v>
+        <v>42262</v>
       </c>
       <c r="G47" s="6" t="n">
         <v>0.037971471288585</v>
       </c>
       <c r="H47" s="6" t="n">
-        <v>0.02509902687610859</v>
+        <v>0.02492408204057273</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.05485109855574694</v>
+        <v>0.05431679525827745</v>
       </c>
       <c r="J47" s="5" t="n">
         <v>18</v>
@@ -7951,19 +7951,19 @@
         <v>20226</v>
       </c>
       <c r="L47" s="5" t="n">
-        <v>12904</v>
+        <v>11912</v>
       </c>
       <c r="M47" s="5" t="n">
-        <v>31508</v>
+        <v>31682</v>
       </c>
       <c r="N47" s="6" t="n">
         <v>0.02458488886796666</v>
       </c>
       <c r="O47" s="6" t="n">
-        <v>0.01568460680548583</v>
+        <v>0.01447916541068291</v>
       </c>
       <c r="P47" s="6" t="n">
-        <v>0.03829863776943269</v>
+        <v>0.03850918692145287</v>
       </c>
       <c r="Q47" s="5" t="n">
         <v>46</v>
@@ -7972,19 +7972,19 @@
         <v>49770</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>37623</v>
+        <v>36079</v>
       </c>
       <c r="T47" s="5" t="n">
-        <v>65117</v>
+        <v>65535</v>
       </c>
       <c r="U47" s="6" t="n">
         <v>0.03109155019364222</v>
       </c>
       <c r="V47" s="6" t="n">
-        <v>0.02350297497972421</v>
+        <v>0.02253836127064965</v>
       </c>
       <c r="W47" s="6" t="n">
-        <v>0.04067874882690128</v>
+        <v>0.04093988804913721</v>
       </c>
     </row>
     <row r="48">
@@ -8001,19 +8001,19 @@
         <v>171475</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>147613</v>
+        <v>148284</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>193613</v>
+        <v>192541</v>
       </c>
       <c r="G48" s="6" t="n">
         <v>0.2203855846876199</v>
       </c>
       <c r="H48" s="6" t="n">
-        <v>0.1897172795100614</v>
+        <v>0.1905801013622563</v>
       </c>
       <c r="I48" s="6" t="n">
-        <v>0.2488376162826021</v>
+        <v>0.2474603390459965</v>
       </c>
       <c r="J48" s="5" t="n">
         <v>129</v>
@@ -8022,19 +8022,19 @@
         <v>139947</v>
       </c>
       <c r="L48" s="5" t="n">
-        <v>120151</v>
+        <v>117695</v>
       </c>
       <c r="M48" s="5" t="n">
-        <v>163904</v>
+        <v>163441</v>
       </c>
       <c r="N48" s="6" t="n">
         <v>0.1701057582873118</v>
       </c>
       <c r="O48" s="6" t="n">
-        <v>0.1460446592754788</v>
+        <v>0.1430589980158129</v>
       </c>
       <c r="P48" s="6" t="n">
-        <v>0.1992262504736202</v>
+        <v>0.1986639902242136</v>
       </c>
       <c r="Q48" s="5" t="n">
         <v>292</v>
@@ -8043,19 +8043,19 @@
         <v>311422</v>
       </c>
       <c r="S48" s="5" t="n">
-        <v>279293</v>
+        <v>279578</v>
       </c>
       <c r="T48" s="5" t="n">
-        <v>345727</v>
+        <v>344009</v>
       </c>
       <c r="U48" s="6" t="n">
         <v>0.1945446921108301</v>
       </c>
       <c r="V48" s="6" t="n">
-        <v>0.1744737808445399</v>
+        <v>0.1746516753410371</v>
       </c>
       <c r="W48" s="6" t="n">
-        <v>0.2159754127198554</v>
+        <v>0.2149022358010987</v>
       </c>
     </row>
     <row r="49">
@@ -8072,19 +8072,19 @@
         <v>324951</v>
       </c>
       <c r="E49" s="5" t="n">
-        <v>295909</v>
+        <v>297797</v>
       </c>
       <c r="F49" s="5" t="n">
-        <v>354831</v>
+        <v>352801</v>
       </c>
       <c r="G49" s="6" t="n">
         <v>0.4176379585784131</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>0.3803121048792325</v>
+        <v>0.382738904573839</v>
       </c>
       <c r="I49" s="6" t="n">
-        <v>0.4560402107548938</v>
+        <v>0.4534313841485675</v>
       </c>
       <c r="J49" s="5" t="n">
         <v>317</v>
@@ -8093,19 +8093,19 @@
         <v>339131</v>
       </c>
       <c r="L49" s="5" t="n">
-        <v>305796</v>
+        <v>311875</v>
       </c>
       <c r="M49" s="5" t="n">
-        <v>364826</v>
+        <v>370546</v>
       </c>
       <c r="N49" s="6" t="n">
         <v>0.4122152991559578</v>
       </c>
       <c r="O49" s="6" t="n">
-        <v>0.3716966347252856</v>
+        <v>0.3790853765560372</v>
       </c>
       <c r="P49" s="6" t="n">
-        <v>0.4434484832817967</v>
+        <v>0.4504003134290387</v>
       </c>
       <c r="Q49" s="5" t="n">
         <v>612</v>
@@ -8114,19 +8114,19 @@
         <v>664082</v>
       </c>
       <c r="S49" s="5" t="n">
-        <v>623619</v>
+        <v>623130</v>
       </c>
       <c r="T49" s="5" t="n">
-        <v>708604</v>
+        <v>704138</v>
       </c>
       <c r="U49" s="6" t="n">
         <v>0.4148510285182225</v>
       </c>
       <c r="V49" s="6" t="n">
-        <v>0.3895738814963701</v>
+        <v>0.3892684786814284</v>
       </c>
       <c r="W49" s="6" t="n">
-        <v>0.4426639593779093</v>
+        <v>0.4398741861172578</v>
       </c>
     </row>
     <row r="50">
@@ -8143,19 +8143,19 @@
         <v>240765</v>
       </c>
       <c r="E50" s="5" t="n">
-        <v>216055</v>
+        <v>213200</v>
       </c>
       <c r="F50" s="5" t="n">
-        <v>268396</v>
+        <v>268129</v>
       </c>
       <c r="G50" s="6" t="n">
         <v>0.3094388617815872</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>0.277680504853171</v>
+        <v>0.2740120737076942</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>0.3449514722670411</v>
+        <v>0.3446078376139461</v>
       </c>
       <c r="J50" s="5" t="n">
         <v>289</v>
@@ -8164,19 +8164,19 @@
         <v>320088</v>
       </c>
       <c r="L50" s="5" t="n">
-        <v>293839</v>
+        <v>290150</v>
       </c>
       <c r="M50" s="5" t="n">
-        <v>350593</v>
+        <v>346533</v>
       </c>
       <c r="N50" s="6" t="n">
         <v>0.3890688496964096</v>
       </c>
       <c r="O50" s="6" t="n">
-        <v>0.357162772602251</v>
+        <v>0.3526787878633189</v>
       </c>
       <c r="P50" s="6" t="n">
-        <v>0.4261481129890718</v>
+        <v>0.421212889292168</v>
       </c>
       <c r="Q50" s="5" t="n">
         <v>508</v>
@@ -8185,19 +8185,19 @@
         <v>560853</v>
       </c>
       <c r="S50" s="5" t="n">
-        <v>519891</v>
+        <v>521411</v>
       </c>
       <c r="T50" s="5" t="n">
-        <v>600297</v>
+        <v>600268</v>
       </c>
       <c r="U50" s="6" t="n">
         <v>0.3503640222468465</v>
       </c>
       <c r="V50" s="6" t="n">
-        <v>0.3247753512164204</v>
+        <v>0.3257249666787879</v>
       </c>
       <c r="W50" s="6" t="n">
-        <v>0.3750046852440649</v>
+        <v>0.3749864379395468</v>
       </c>
     </row>
     <row r="51">
@@ -8289,19 +8289,19 @@
         <v>55607</v>
       </c>
       <c r="E52" s="5" t="n">
-        <v>40836</v>
+        <v>42898</v>
       </c>
       <c r="F52" s="5" t="n">
-        <v>72526</v>
+        <v>72299</v>
       </c>
       <c r="G52" s="6" t="n">
         <v>0.0162613072791618</v>
       </c>
       <c r="H52" s="6" t="n">
-        <v>0.01194191085485829</v>
+        <v>0.01254488490357313</v>
       </c>
       <c r="I52" s="6" t="n">
-        <v>0.02120903449456533</v>
+        <v>0.0211426829177917</v>
       </c>
       <c r="J52" s="5" t="n">
         <v>35</v>
@@ -8310,19 +8310,19 @@
         <v>36451</v>
       </c>
       <c r="L52" s="5" t="n">
-        <v>26230</v>
+        <v>25963</v>
       </c>
       <c r="M52" s="5" t="n">
-        <v>51862</v>
+        <v>50554</v>
       </c>
       <c r="N52" s="6" t="n">
         <v>0.01027224914762225</v>
       </c>
       <c r="O52" s="6" t="n">
-        <v>0.007391774407423359</v>
+        <v>0.007316720969040486</v>
       </c>
       <c r="P52" s="6" t="n">
-        <v>0.01461528160533617</v>
+        <v>0.0142467397146105</v>
       </c>
       <c r="Q52" s="5" t="n">
         <v>90</v>
@@ -8331,19 +8331,19 @@
         <v>92058</v>
       </c>
       <c r="S52" s="5" t="n">
-        <v>75916</v>
+        <v>74105</v>
       </c>
       <c r="T52" s="5" t="n">
-        <v>113122</v>
+        <v>112447</v>
       </c>
       <c r="U52" s="6" t="n">
         <v>0.01321138085106804</v>
       </c>
       <c r="V52" s="6" t="n">
-        <v>0.01089489764545531</v>
+        <v>0.01063501264438638</v>
       </c>
       <c r="W52" s="6" t="n">
-        <v>0.01623441469533745</v>
+        <v>0.01613753606303884</v>
       </c>
     </row>
     <row r="53">
@@ -8360,19 +8360,19 @@
         <v>148723</v>
       </c>
       <c r="E53" s="5" t="n">
-        <v>125971</v>
+        <v>126434</v>
       </c>
       <c r="F53" s="5" t="n">
-        <v>175438</v>
+        <v>173990</v>
       </c>
       <c r="G53" s="6" t="n">
         <v>0.04349185039249806</v>
       </c>
       <c r="H53" s="6" t="n">
-        <v>0.03683825574171524</v>
+        <v>0.0369736924091395</v>
       </c>
       <c r="I53" s="6" t="n">
-        <v>0.05130397392248702</v>
+        <v>0.05088075879478358</v>
       </c>
       <c r="J53" s="5" t="n">
         <v>97</v>
@@ -8381,19 +8381,19 @@
         <v>103957</v>
       </c>
       <c r="L53" s="5" t="n">
-        <v>86516</v>
+        <v>82238</v>
       </c>
       <c r="M53" s="5" t="n">
-        <v>127513</v>
+        <v>124179</v>
       </c>
       <c r="N53" s="6" t="n">
         <v>0.02929615574790501</v>
       </c>
       <c r="O53" s="6" t="n">
-        <v>0.02438112621605774</v>
+        <v>0.02317564949067939</v>
       </c>
       <c r="P53" s="6" t="n">
-        <v>0.03593447472264103</v>
+        <v>0.03499492804642183</v>
       </c>
       <c r="Q53" s="5" t="n">
         <v>240</v>
@@ -8402,19 +8402,19 @@
         <v>252680</v>
       </c>
       <c r="S53" s="5" t="n">
-        <v>222746</v>
+        <v>222488</v>
       </c>
       <c r="T53" s="5" t="n">
-        <v>286488</v>
+        <v>283223</v>
       </c>
       <c r="U53" s="6" t="n">
         <v>0.03626269627330705</v>
       </c>
       <c r="V53" s="6" t="n">
-        <v>0.03196673431288666</v>
+        <v>0.0319298062577154</v>
       </c>
       <c r="W53" s="6" t="n">
-        <v>0.04111446442016219</v>
+        <v>0.0406459953520166</v>
       </c>
     </row>
     <row r="54">
@@ -8431,19 +8431,19 @@
         <v>781950</v>
       </c>
       <c r="E54" s="5" t="n">
-        <v>726140</v>
+        <v>733837</v>
       </c>
       <c r="F54" s="5" t="n">
-        <v>828652</v>
+        <v>833828</v>
       </c>
       <c r="G54" s="6" t="n">
         <v>0.2286690342700469</v>
       </c>
       <c r="H54" s="6" t="n">
-        <v>0.2123481575632317</v>
+        <v>0.2145992136109597</v>
       </c>
       <c r="I54" s="6" t="n">
-        <v>0.2423262371968773</v>
+        <v>0.2438400046448235</v>
       </c>
       <c r="J54" s="5" t="n">
         <v>545</v>
@@ -8452,19 +8452,19 @@
         <v>585032</v>
       </c>
       <c r="L54" s="5" t="n">
-        <v>543288</v>
+        <v>536633</v>
       </c>
       <c r="M54" s="5" t="n">
-        <v>634120</v>
+        <v>634088</v>
       </c>
       <c r="N54" s="6" t="n">
         <v>0.1648685420210648</v>
       </c>
       <c r="O54" s="6" t="n">
-        <v>0.153104469048434</v>
+        <v>0.1512292085722982</v>
       </c>
       <c r="P54" s="6" t="n">
-        <v>0.178702125887247</v>
+        <v>0.1786930285778704</v>
       </c>
       <c r="Q54" s="5" t="n">
         <v>1287</v>
@@ -8473,19 +8473,19 @@
         <v>1366982</v>
       </c>
       <c r="S54" s="5" t="n">
-        <v>1296415</v>
+        <v>1299387</v>
       </c>
       <c r="T54" s="5" t="n">
-        <v>1427717</v>
+        <v>1435829</v>
       </c>
       <c r="U54" s="6" t="n">
         <v>0.196178648776737</v>
       </c>
       <c r="V54" s="6" t="n">
-        <v>0.1860513418440459</v>
+        <v>0.1864779064955405</v>
       </c>
       <c r="W54" s="6" t="n">
-        <v>0.2048948128160912</v>
+        <v>0.2060590007879017</v>
       </c>
     </row>
     <row r="55">
@@ -8502,19 +8502,19 @@
         <v>1204982</v>
       </c>
       <c r="E55" s="5" t="n">
-        <v>1148370</v>
+        <v>1146251</v>
       </c>
       <c r="F55" s="5" t="n">
-        <v>1259327</v>
+        <v>1267405</v>
       </c>
       <c r="G55" s="6" t="n">
         <v>0.3523781768686404</v>
       </c>
       <c r="H55" s="6" t="n">
-        <v>0.3358228277391034</v>
+        <v>0.3352031106747037</v>
       </c>
       <c r="I55" s="6" t="n">
-        <v>0.3682705186053441</v>
+        <v>0.3706328619657047</v>
       </c>
       <c r="J55" s="5" t="n">
         <v>1101</v>
@@ -8523,19 +8523,19 @@
         <v>1185243</v>
       </c>
       <c r="L55" s="5" t="n">
-        <v>1129876</v>
+        <v>1127920</v>
       </c>
       <c r="M55" s="5" t="n">
-        <v>1246737</v>
+        <v>1237969</v>
       </c>
       <c r="N55" s="6" t="n">
         <v>0.3340146828991245</v>
       </c>
       <c r="O55" s="6" t="n">
-        <v>0.3184115800328833</v>
+        <v>0.3178602889217009</v>
       </c>
       <c r="P55" s="6" t="n">
-        <v>0.3513442393473639</v>
+        <v>0.3488734689255952</v>
       </c>
       <c r="Q55" s="5" t="n">
         <v>2211</v>
@@ -8544,19 +8544,19 @@
         <v>2390226</v>
       </c>
       <c r="S55" s="5" t="n">
-        <v>2310677</v>
+        <v>2316003</v>
       </c>
       <c r="T55" s="5" t="n">
-        <v>2474685</v>
+        <v>2482209</v>
       </c>
       <c r="U55" s="6" t="n">
         <v>0.3430265719351665</v>
       </c>
       <c r="V55" s="6" t="n">
-        <v>0.3316103310368719</v>
+        <v>0.3323746650132746</v>
       </c>
       <c r="W55" s="6" t="n">
-        <v>0.355147501645332</v>
+        <v>0.3562272319540976</v>
       </c>
     </row>
     <row r="56">
@@ -8573,19 +8573,19 @@
         <v>1228309</v>
       </c>
       <c r="E56" s="5" t="n">
-        <v>1171506</v>
+        <v>1172048</v>
       </c>
       <c r="F56" s="5" t="n">
-        <v>1285090</v>
+        <v>1289872</v>
       </c>
       <c r="G56" s="6" t="n">
         <v>0.3591996311896529</v>
       </c>
       <c r="H56" s="6" t="n">
-        <v>0.3425886799188054</v>
+        <v>0.3427469527792429</v>
       </c>
       <c r="I56" s="6" t="n">
-        <v>0.3758045415970035</v>
+        <v>0.3772029157204006</v>
       </c>
       <c r="J56" s="5" t="n">
         <v>1513</v>
@@ -8594,19 +8594,19 @@
         <v>1637794</v>
       </c>
       <c r="L56" s="5" t="n">
-        <v>1579692</v>
+        <v>1580109</v>
       </c>
       <c r="M56" s="5" t="n">
-        <v>1696975</v>
+        <v>1697922</v>
       </c>
       <c r="N56" s="6" t="n">
         <v>0.4615483701842835</v>
       </c>
       <c r="O56" s="6" t="n">
-        <v>0.4451745897524868</v>
+        <v>0.4452922137713912</v>
       </c>
       <c r="P56" s="6" t="n">
-        <v>0.4782261897499411</v>
+        <v>0.4784931279286323</v>
       </c>
       <c r="Q56" s="5" t="n">
         <v>2665</v>
@@ -8615,19 +8615,19 @@
         <v>2866103</v>
       </c>
       <c r="S56" s="5" t="n">
-        <v>2787554</v>
+        <v>2776295</v>
       </c>
       <c r="T56" s="5" t="n">
-        <v>2961100</v>
+        <v>2946944</v>
       </c>
       <c r="U56" s="6" t="n">
         <v>0.4113207021637214</v>
       </c>
       <c r="V56" s="6" t="n">
-        <v>0.4000479976805386</v>
+        <v>0.3984322442612754</v>
       </c>
       <c r="W56" s="6" t="n">
-        <v>0.4249539617883358</v>
+        <v>0.4229223704989303</v>
       </c>
     </row>
     <row r="57">
@@ -8963,19 +8963,19 @@
         <v>5358</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>2051</v>
+        <v>1990</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>11272</v>
+        <v>11916</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01829945960743702</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.007004018233991286</v>
+        <v>0.00679680125356449</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.03849355154486014</v>
+        <v>0.04069334345177973</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>3</v>
@@ -8984,19 +8984,19 @@
         <v>2889</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>930</v>
+        <v>905</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>8293</v>
+        <v>7919</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.01007780951525029</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.003243112096971822</v>
+        <v>0.003156930465505912</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.02892538105572093</v>
+        <v>0.02761937764975849</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>8</v>
@@ -9005,19 +9005,19 @@
         <v>8248</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>3972</v>
+        <v>4037</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>16412</v>
+        <v>15716</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01423191975402567</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.006853831969170683</v>
+        <v>0.006966267400545158</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.02831905885835026</v>
+        <v>0.02711880589859328</v>
       </c>
     </row>
     <row r="5">
@@ -9034,19 +9034,19 @@
         <v>10897</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>4919</v>
+        <v>5350</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>19956</v>
+        <v>20448</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.03721293250861457</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.01679902361316957</v>
+        <v>0.01827214004389448</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.06815294125905874</v>
+        <v>0.06983174757508313</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>2</v>
@@ -9058,7 +9058,7 @@
         <v>0</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>8533</v>
+        <v>8568</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.00878423804012844</v>
@@ -9067,7 +9067,7 @@
         <v>0</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.02975988747849513</v>
+        <v>0.02988435173966428</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>11</v>
@@ -9076,19 +9076,19 @@
         <v>13415</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>6710</v>
+        <v>7315</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>23423</v>
+        <v>23445</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.02314825614384038</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.01157746545737728</v>
+        <v>0.01262302186720296</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.04041685980236998</v>
+        <v>0.04045563050824451</v>
       </c>
     </row>
     <row r="6">
@@ -9105,19 +9105,19 @@
         <v>40896</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>29391</v>
+        <v>29497</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>53898</v>
+        <v>55339</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.139661732428709</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1003735780749236</v>
+        <v>0.1007353493173021</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1840643923323307</v>
+        <v>0.1889880631115386</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>36</v>
@@ -9126,19 +9126,19 @@
         <v>36184</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>25858</v>
+        <v>25285</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>47631</v>
+        <v>47997</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.126200001822349</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.09018769551607177</v>
+        <v>0.0881894135956191</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1661244525849335</v>
+        <v>0.1674027768580827</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>71</v>
@@ -9147,19 +9147,19 @@
         <v>77079</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>61692</v>
+        <v>61401</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>95791</v>
+        <v>94780</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1330017401980383</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1064517152903384</v>
+        <v>0.1059480955341966</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1652887855268722</v>
+        <v>0.1635440667795046</v>
       </c>
     </row>
     <row r="7">
@@ -9176,19 +9176,19 @@
         <v>75486</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>62634</v>
+        <v>62171</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>92435</v>
+        <v>92123</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2577911616998574</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.213900610169368</v>
+        <v>0.2123180007067511</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3156727854632329</v>
+        <v>0.3146079886816396</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>48</v>
@@ -9197,19 +9197,19 @@
         <v>49753</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>38823</v>
+        <v>37386</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>64676</v>
+        <v>64121</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.17352665048775</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1354063648972111</v>
+        <v>0.1303931666846108</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2255740843679804</v>
+        <v>0.2236391893149583</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>117</v>
@@ -9218,19 +9218,19 @@
         <v>125239</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>106121</v>
+        <v>106119</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>146380</v>
+        <v>147363</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2161025403476547</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1831136203235151</v>
+        <v>0.1831103353362601</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2525815979406588</v>
+        <v>0.2542784311845211</v>
       </c>
     </row>
     <row r="8">
@@ -9247,19 +9247,19 @@
         <v>160182</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>142772</v>
+        <v>142459</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>177894</v>
+        <v>175482</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.5470347137553819</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.4875763095074859</v>
+        <v>0.4865077356319276</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.6075233541785117</v>
+        <v>0.5992847954470817</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>186</v>
@@ -9268,19 +9268,19 @@
         <v>195372</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>176976</v>
+        <v>178329</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>208928</v>
+        <v>210054</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.6814113001345222</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6172497025639588</v>
+        <v>0.6219682786445968</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.728689694624696</v>
+        <v>0.7326185408694612</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>333</v>
@@ -9289,19 +9289,19 @@
         <v>355554</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>331281</v>
+        <v>330120</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>378646</v>
+        <v>377289</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.6135155435564409</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.5716326376225316</v>
+        <v>0.5696286957741934</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.6533608986017774</v>
+        <v>0.6510205223807178</v>
       </c>
     </row>
     <row r="9">
@@ -9393,19 +9393,19 @@
         <v>4034</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>1031</v>
+        <v>1023</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>10013</v>
+        <v>9312</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.008106111471490896</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.00207205009971236</v>
+        <v>0.002055767093616921</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.02012198756893625</v>
+        <v>0.01871340193672491</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>5</v>
@@ -9417,16 +9417,16 @@
         <v>1973</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>10968</v>
+        <v>11224</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.009678706217527484</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.003788602964908663</v>
+        <v>0.003789088663306825</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.02106568632722145</v>
+        <v>0.02155871089162051</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>9</v>
@@ -9435,19 +9435,19 @@
         <v>9073</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>4112</v>
+        <v>4125</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>16642</v>
+        <v>16369</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.008910194451777596</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.004037963922999616</v>
+        <v>0.00405109555614945</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.01634385243400376</v>
+        <v>0.01607515357163984</v>
       </c>
     </row>
     <row r="11">
@@ -9464,19 +9464,19 @@
         <v>21809</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>14135</v>
+        <v>14782</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>31288</v>
+        <v>33312</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.04382666138428616</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.02840491877534335</v>
+        <v>0.02970557439492413</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.06287533459178289</v>
+        <v>0.06694310080046884</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>9</v>
@@ -9485,19 +9485,19 @@
         <v>9655</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>5232</v>
+        <v>4289</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>18437</v>
+        <v>17641</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.0185450227890507</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.01004997249686357</v>
+        <v>0.00823709370374269</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.03541204786936926</v>
+        <v>0.03388343503731782</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>31</v>
@@ -9506,19 +9506,19 @@
         <v>31464</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>21835</v>
+        <v>21376</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>43027</v>
+        <v>43845</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.03089991381666124</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.02144351804272714</v>
+        <v>0.02099233320267455</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.04225569615577944</v>
+        <v>0.0430586071760653</v>
       </c>
     </row>
     <row r="12">
@@ -9535,19 +9535,19 @@
         <v>131281</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>110154</v>
+        <v>110586</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>149715</v>
+        <v>152131</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.2638194285853592</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.2213626738882206</v>
+        <v>0.2222317789477263</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.3008650356656976</v>
+        <v>0.3057205319971622</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>93</v>
@@ -9556,19 +9556,19 @@
         <v>96771</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>81050</v>
+        <v>79919</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>115180</v>
+        <v>114924</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1858668262184145</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1556710592758937</v>
+        <v>0.1534997983668643</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2212246988590923</v>
+        <v>0.2207333058045885</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>219</v>
@@ -9577,19 +9577,19 @@
         <v>228052</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>203582</v>
+        <v>200592</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>255560</v>
+        <v>255695</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2239615052454203</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1999307850809471</v>
+        <v>0.1969936246274934</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2509762534539846</v>
+        <v>0.2511087234029916</v>
       </c>
     </row>
     <row r="13">
@@ -9606,19 +9606,19 @@
         <v>224521</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>202584</v>
+        <v>201673</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>248156</v>
+        <v>246647</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.4511923343926151</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.4071081436144885</v>
+        <v>0.4052790262564237</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.4986899491391517</v>
+        <v>0.4956581196757103</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>213</v>
@@ -9627,19 +9627,19 @@
         <v>230839</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>209251</v>
+        <v>207473</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>255377</v>
+        <v>254351</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.4433688520444094</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.4019046408446268</v>
+        <v>0.3984897999356397</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.4904986217967707</v>
+        <v>0.4885286472915555</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>424</v>
@@ -9648,19 +9648,19 @@
         <v>455360</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>424184</v>
+        <v>424908</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>484684</v>
+        <v>489413</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.4471921118186684</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.4165759581840141</v>
+        <v>0.4172864532860792</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.4759905344670305</v>
+        <v>0.4806343764158674</v>
       </c>
     </row>
     <row r="14">
@@ -9677,19 +9677,19 @@
         <v>115972</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>98096</v>
+        <v>98619</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>135861</v>
+        <v>135679</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.2330554641662486</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1971313855445881</v>
+        <v>0.1981838761638313</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2730233400874983</v>
+        <v>0.2726584556906425</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>162</v>
@@ -9698,19 +9698,19 @@
         <v>178343</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>157806</v>
+        <v>156126</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>200518</v>
+        <v>201506</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.3425405927305979</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.3030957476633923</v>
+        <v>0.2998690983683224</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.38513248881358</v>
+        <v>0.3870291349997682</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>270</v>
@@ -9719,19 +9719,19 @@
         <v>294315</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>267983</v>
+        <v>265486</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>326498</v>
+        <v>326688</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.2890362746674725</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.2631761770268283</v>
+        <v>0.2607246061537197</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.3206414300361015</v>
+        <v>0.3208280550672712</v>
       </c>
     </row>
     <row r="15">
@@ -9826,7 +9826,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>4338</v>
+        <v>4539</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.002825051271056864</v>
@@ -9835,7 +9835,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.01365676431303941</v>
+        <v>0.01428832122332598</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>1</v>
@@ -9847,7 +9847,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>5035</v>
+        <v>4804</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.00296431090438728</v>
@@ -9856,7 +9856,7 @@
         <v>0</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.01497098238021824</v>
+        <v>0.01428375680088046</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>2</v>
@@ -9868,7 +9868,7 @@
         <v>0</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>6976</v>
+        <v>6510</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.002896668585418806</v>
@@ -9877,7 +9877,7 @@
         <v>0</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.0106669802150227</v>
+        <v>0.00995534296518078</v>
       </c>
     </row>
     <row r="17">
@@ -9897,16 +9897,16 @@
         <v>932</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>9316</v>
+        <v>8987</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.01133130192347686</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.002933762777848974</v>
+        <v>0.002932590013596162</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.02932783096511179</v>
+        <v>0.02829168273890036</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>5</v>
@@ -9915,19 +9915,19 @@
         <v>4808</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>1810</v>
+        <v>1832</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>10478</v>
+        <v>10474</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.01429626496238035</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.005382593222066427</v>
+        <v>0.005446260627177361</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.03115483097558691</v>
+        <v>0.03114303567317019</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>9</v>
@@ -9936,19 +9936,19 @@
         <v>8407</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>3851</v>
+        <v>4528</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>15084</v>
+        <v>15665</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.01285609905923314</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.005888862403744748</v>
+        <v>0.00692384942092046</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.02306623986116041</v>
+        <v>0.0239544439429617</v>
       </c>
     </row>
     <row r="18">
@@ -9965,19 +9965,19 @@
         <v>81434</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>66531</v>
+        <v>66677</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>97300</v>
+        <v>96765</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.2563681036307998</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.2094523793833946</v>
+        <v>0.209911758285049</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.3063177645537246</v>
+        <v>0.3046332876299374</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>68</v>
@@ -9986,19 +9986,19 @@
         <v>68027</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>53318</v>
+        <v>54475</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>83918</v>
+        <v>83339</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.2022739114192554</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.1585390669401775</v>
+        <v>0.1619788988601753</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.2495250812957122</v>
+        <v>0.2478041462383117</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>152</v>
@@ -10007,19 +10007,19 @@
         <v>149460</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>128754</v>
+        <v>129977</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>171612</v>
+        <v>172872</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.228548981347334</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.1968864625827628</v>
+        <v>0.1987567749716891</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.2624229604721092</v>
+        <v>0.2643490278871916</v>
       </c>
     </row>
     <row r="19">
@@ -10036,19 +10036,19 @@
         <v>159335</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>142444</v>
+        <v>143780</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>177002</v>
+        <v>176232</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.5016168994063915</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.4484416695827821</v>
+        <v>0.4526467222567209</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.5572361339481845</v>
+        <v>0.5548104303676564</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>169</v>
@@ -10057,19 +10057,19 @@
         <v>169200</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>152940</v>
+        <v>150912</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>189221</v>
+        <v>188035</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.5031101153260081</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.4547593404067086</v>
+        <v>0.4487293769102873</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.5626411230174428</v>
+        <v>0.5591151421452256</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>336</v>
@@ -10078,19 +10078,19 @@
         <v>328536</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>303980</v>
+        <v>303501</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>352882</v>
+        <v>355405</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.5023848183744941</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.4648354055577266</v>
+        <v>0.4641030741628813</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.5396140850056803</v>
+        <v>0.5434730613931036</v>
       </c>
     </row>
     <row r="20">
@@ -10107,19 +10107,19 @@
         <v>72378</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>58762</v>
+        <v>58807</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>87541</v>
+        <v>86617</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.2278586437682749</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1849941540221804</v>
+        <v>0.1851363873553974</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2755969605592524</v>
+        <v>0.272685788451174</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>89</v>
@@ -10128,19 +10128,19 @@
         <v>93277</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>77336</v>
+        <v>77815</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>110711</v>
+        <v>112640</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.2773553973879688</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.22995536526917</v>
+        <v>0.2313796726149474</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.3291933233288348</v>
+        <v>0.3349294831586407</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>167</v>
@@ -10149,19 +10149,19 @@
         <v>165655</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>147386</v>
+        <v>144565</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>189623</v>
+        <v>188755</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.2533134326335199</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.2253773756921885</v>
+        <v>0.2210641278803522</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2899649440431816</v>
+        <v>0.2886376707967579</v>
       </c>
     </row>
     <row r="21">
@@ -10253,19 +10253,19 @@
         <v>6605</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>2864</v>
+        <v>2697</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>12890</v>
+        <v>13293</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.0178542356571343</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.007741560590838139</v>
+        <v>0.007290881393134111</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.03484138098188721</v>
+        <v>0.03593074652816943</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>9</v>
@@ -10274,19 +10274,19 @@
         <v>10099</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>4839</v>
+        <v>5175</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>18555</v>
+        <v>19052</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.0261407648627264</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.01252615700101832</v>
+        <v>0.01339622861487268</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.04802848251612077</v>
+        <v>0.04931538452077563</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>16</v>
@@ -10295,19 +10295,19 @@
         <v>16704</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>10004</v>
+        <v>9650</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>26759</v>
+        <v>26164</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.02208713033629546</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.01322744028258442</v>
+        <v>0.01275975664190995</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.03538222217069396</v>
+        <v>0.03459483892689344</v>
       </c>
     </row>
     <row r="23">
@@ -10324,19 +10324,19 @@
         <v>8766</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>4122</v>
+        <v>4312</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>16920</v>
+        <v>16201</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.02369543872496592</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.01114188821420515</v>
+        <v>0.01165530860393735</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.04573389949368126</v>
+        <v>0.04378962593683526</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>6</v>
@@ -10345,19 +10345,19 @@
         <v>5808</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>2118</v>
+        <v>2107</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>12296</v>
+        <v>11655</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.01503370398506097</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.005481630290591411</v>
+        <v>0.00545342017574962</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.03182790537293413</v>
+        <v>0.03016867084275075</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>14</v>
@@ -10366,19 +10366,19 @@
         <v>14574</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>8493</v>
+        <v>8515</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>23842</v>
+        <v>23956</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.01927088292081737</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.01123005153463895</v>
+        <v>0.0112582799813075</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.03152433816187433</v>
+        <v>0.03167609797075496</v>
       </c>
     </row>
     <row r="24">
@@ -10395,19 +10395,19 @@
         <v>57861</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>44033</v>
+        <v>43602</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>73902</v>
+        <v>72398</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1563967116644542</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1190188222539723</v>
+        <v>0.1178539506164111</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1997533859883878</v>
+        <v>0.1956896814144081</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>32</v>
@@ -10416,19 +10416,19 @@
         <v>34645</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>24375</v>
+        <v>23722</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>48429</v>
+        <v>46780</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.08967787648326961</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.0630958301410771</v>
+        <v>0.06140370718719526</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.125357195624396</v>
+        <v>0.121090296116427</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>86</v>
@@ -10437,19 +10437,19 @@
         <v>92506</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>74759</v>
+        <v>75791</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>112111</v>
+        <v>112464</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1223156391874898</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.09885014023716557</v>
+        <v>0.1002139408931842</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1482385065849703</v>
+        <v>0.1487048157748018</v>
       </c>
     </row>
     <row r="25">
@@ -10466,19 +10466,19 @@
         <v>102135</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>86330</v>
+        <v>84669</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>120958</v>
+        <v>119145</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2760675974000185</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2333477651907652</v>
+        <v>0.228858080659649</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.3269463533552835</v>
+        <v>0.3220461374128319</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>79</v>
@@ -10487,19 +10487,19 @@
         <v>83981</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>68000</v>
+        <v>67629</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>100616</v>
+        <v>102398</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2173845461281023</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1760172736508357</v>
+        <v>0.1750585624653695</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2604440973019523</v>
+        <v>0.2650554655793652</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>177</v>
@@ -10508,19 +10508,19 @@
         <v>186116</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>161728</v>
+        <v>161630</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>211361</v>
+        <v>212167</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.246091334802862</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2138437967938349</v>
+        <v>0.2137143917312856</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2794717107148094</v>
+        <v>0.2805365203721544</v>
       </c>
     </row>
     <row r="26">
@@ -10537,19 +10537,19 @@
         <v>194596</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>173904</v>
+        <v>175131</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>213439</v>
+        <v>214288</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.5259860165534271</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.4700568834225761</v>
+        <v>0.47337331986068</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.5769183717969019</v>
+        <v>0.5792143158693248</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>231</v>
@@ -10558,19 +10558,19 @@
         <v>251792</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>232233</v>
+        <v>231048</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>270440</v>
+        <v>269211</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.6517631085408407</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.6011332513551642</v>
+        <v>0.5980675656992632</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.7000324145267625</v>
+        <v>0.6968510801973341</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>418</v>
@@ -10579,19 +10579,19 @@
         <v>446388</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>418433</v>
+        <v>416747</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>475161</v>
+        <v>474973</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.5902350127525354</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.5532715912748603</v>
+        <v>0.5510426297574678</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.6282801041933924</v>
+        <v>0.6280314781170178</v>
       </c>
     </row>
     <row r="27">
@@ -10733,7 +10733,7 @@
         <v>0</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>4771</v>
+        <v>3967</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.004530527310403009</v>
@@ -10742,7 +10742,7 @@
         <v>0</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.02258740309277287</v>
+        <v>0.01878102284067196</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>1</v>
@@ -10754,7 +10754,7 @@
         <v>0</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>5638</v>
+        <v>5028</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.004567452493902417</v>
@@ -10763,7 +10763,7 @@
         <v>0</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.02579151438212672</v>
+        <v>0.02300267978929915</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>2</v>
@@ -10775,7 +10775,7 @@
         <v>0</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>6837</v>
+        <v>6941</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.00454930631199973</v>
@@ -10784,7 +10784,7 @@
         <v>0</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.01590650035569661</v>
+        <v>0.01614967817750253</v>
       </c>
     </row>
     <row r="30">
@@ -10801,19 +10801,19 @@
         <v>19955</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>12539</v>
+        <v>13068</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>30854</v>
+        <v>29724</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.09447297606816631</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.05936579196771668</v>
+        <v>0.06187014172115488</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.1460755926275</v>
+        <v>0.1407253759788303</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>23</v>
@@ -10822,19 +10822,19 @@
         <v>21908</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>14307</v>
+        <v>14501</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>31390</v>
+        <v>31785</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.1002255309983601</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.06545038524074763</v>
+        <v>0.0663406182785778</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.1436053489497194</v>
+        <v>0.1454099619275619</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>42</v>
@@ -10843,19 +10843,19 @@
         <v>41863</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>30890</v>
+        <v>30730</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>56007</v>
+        <v>55398</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.09739854685703096</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.07187005286016457</v>
+        <v>0.07149668717726856</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.1303063420464572</v>
+        <v>0.1288898512389354</v>
       </c>
     </row>
     <row r="31">
@@ -10872,19 +10872,19 @@
         <v>138473</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>124112</v>
+        <v>124340</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>152152</v>
+        <v>150683</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.6555845739719823</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.5875917524696994</v>
+        <v>0.5886748113724065</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.7203450112714923</v>
+        <v>0.7133883483476763</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>133</v>
@@ -10893,19 +10893,19 @@
         <v>129867</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>115091</v>
+        <v>115492</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>143375</v>
+        <v>144322</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.5941193594002758</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.5265219089191268</v>
+        <v>0.5283551685803064</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.6559171126429516</v>
+        <v>0.6602484792852535</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>273</v>
@@ -10914,19 +10914,19 @@
         <v>268340</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>248868</v>
+        <v>247853</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>288623</v>
+        <v>286227</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.6243252746755172</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.579021741712586</v>
+        <v>0.5766603017398443</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.6715151376351293</v>
+        <v>0.6659425938999309</v>
       </c>
     </row>
     <row r="32">
@@ -10943,19 +10943,19 @@
         <v>51836</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>39319</v>
+        <v>41203</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>64464</v>
+        <v>65095</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.2454119226494484</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.186149147324135</v>
+        <v>0.1950705539513811</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.3051989236017829</v>
+        <v>0.3081829885632167</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>66</v>
@@ -10964,19 +10964,19 @@
         <v>65814</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>53091</v>
+        <v>52253</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>78924</v>
+        <v>79046</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.3010876571074617</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.2428804625769883</v>
+        <v>0.2390499242755938</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.3610649727911761</v>
+        <v>0.36162358225039</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>118</v>
@@ -10985,19 +10985,19 @@
         <v>117650</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>98716</v>
+        <v>100556</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>134871</v>
+        <v>135815</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.2737268721554521</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.2296756379910447</v>
+        <v>0.2339545555138788</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.3137937050058437</v>
+        <v>0.3159901438642623</v>
       </c>
     </row>
     <row r="33">
@@ -11089,19 +11089,19 @@
         <v>7058</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>2949</v>
+        <v>2974</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>14307</v>
+        <v>14477</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.02692914505951273</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.01124949822212745</v>
+        <v>0.0113479081867108</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.05458243575775693</v>
+        <v>0.05523400301362431</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>11</v>
@@ -11110,19 +11110,19 @@
         <v>11627</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>5465</v>
+        <v>6035</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>20039</v>
+        <v>21358</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.04274193528229485</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.02009014682153752</v>
+        <v>0.02218637246222693</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.07366755359143419</v>
+        <v>0.0785162986906173</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>18</v>
@@ -11131,19 +11131,19 @@
         <v>18685</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>11408</v>
+        <v>11458</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>28803</v>
+        <v>29681</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.03498223138626003</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.02135722080488814</v>
+        <v>0.02145074060448884</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.05392411952600961</v>
+        <v>0.05556888270568787</v>
       </c>
     </row>
     <row r="35">
@@ -11160,19 +11160,19 @@
         <v>25482</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>17390</v>
+        <v>17441</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>37153</v>
+        <v>37308</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.09721745469237918</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.06634438423557877</v>
+        <v>0.06653900044162901</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.1417464187221613</v>
+        <v>0.1423363232769545</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>23</v>
@@ -11181,19 +11181,19 @@
         <v>22874</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>15729</v>
+        <v>14828</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>34344</v>
+        <v>33522</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.08408856367976865</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.05782189515409342</v>
+        <v>0.05450899019842977</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.1262540289029552</v>
+        <v>0.1232316828782311</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>48</v>
@@ -11202,19 +11202,19 @@
         <v>48356</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>35676</v>
+        <v>35807</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>62524</v>
+        <v>62713</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.09053121581806067</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.06679280689395987</v>
+        <v>0.06703768715607179</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.1170561742131031</v>
+        <v>0.1174103682243282</v>
       </c>
     </row>
     <row r="36">
@@ -11231,19 +11231,19 @@
         <v>88336</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>73586</v>
+        <v>74743</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>103579</v>
+        <v>105203</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.3370177258656135</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.2807408962881091</v>
+        <v>0.2851554449397848</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.3951714712665045</v>
+        <v>0.4013672411667485</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>71</v>
@@ -11252,19 +11252,19 @@
         <v>74380</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>59872</v>
+        <v>59170</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>89950</v>
+        <v>90187</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.2734325378254845</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.220100738893081</v>
+        <v>0.2175201481228233</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.3306713270677855</v>
+        <v>0.3315416259388823</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>158</v>
@@ -11273,19 +11273,19 @@
         <v>162716</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>141395</v>
+        <v>143526</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>184964</v>
+        <v>187191</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.3046352682995935</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.2647168751122748</v>
+        <v>0.2687076745195459</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.3462861930734534</v>
+        <v>0.3504563820882561</v>
       </c>
     </row>
     <row r="37">
@@ -11302,19 +11302,19 @@
         <v>89255</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>73086</v>
+        <v>74532</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>104605</v>
+        <v>105268</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.3405228654258567</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.2788343367834495</v>
+        <v>0.2843520862627211</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.3990832847981926</v>
+        <v>0.401613932416207</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>97</v>
@@ -11323,19 +11323,19 @@
         <v>101146</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>86367</v>
+        <v>85768</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>117359</v>
+        <v>119280</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.3718287057502271</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.3174994881561121</v>
+        <v>0.3152986304737375</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.4314313129627951</v>
+        <v>0.4384942714053965</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>184</v>
@@ -11344,19 +11344,19 @@
         <v>190401</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>168854</v>
+        <v>168797</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>213360</v>
+        <v>214587</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.3564662018713309</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.3161262254966745</v>
+        <v>0.3160190167225628</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.3994502421769761</v>
+        <v>0.4017471564090571</v>
       </c>
     </row>
     <row r="38">
@@ -11373,19 +11373,19 @@
         <v>51980</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>40239</v>
+        <v>39963</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>64841</v>
+        <v>64983</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.1983128089566379</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.1535196743267317</v>
+        <v>0.1524638812575419</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.2473773539060718</v>
+        <v>0.2479215713553921</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>60</v>
@@ -11394,19 +11394,19 @@
         <v>61996</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>49104</v>
+        <v>48408</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>78334</v>
+        <v>76836</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.2279082574622249</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.1805135389074885</v>
+        <v>0.1779563972356058</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.2879682712306892</v>
+        <v>0.2824614617905929</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>112</v>
@@ -11415,19 +11415,19 @@
         <v>113976</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>95664</v>
+        <v>97452</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>132924</v>
+        <v>135984</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.2133850826247548</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.1791011293182025</v>
+        <v>0.1824484677335763</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.248858416497021</v>
+        <v>0.2545879561806006</v>
       </c>
     </row>
     <row r="39">
@@ -11519,19 +11519,19 @@
         <v>12575</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>6328</v>
+        <v>6503</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>21234</v>
+        <v>20893</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.01930581238004614</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.009714515096740839</v>
+        <v>0.009983786846003781</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.03259866066565274</v>
+        <v>0.0320747933168532</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>5</v>
@@ -11540,19 +11540,19 @@
         <v>4916</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>1861</v>
+        <v>1847</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>10793</v>
+        <v>11266</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.007188016889735108</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.002721714645255387</v>
+        <v>0.002700334090199444</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.01578168315017557</v>
+        <v>0.01647342711365581</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>17</v>
@@ -11561,19 +11561,19 @@
         <v>17491</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>10088</v>
+        <v>10404</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>28125</v>
+        <v>27188</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.01309942411388687</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.007554807129471912</v>
+        <v>0.007791719351795012</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.02106367884303161</v>
+        <v>0.02036164410783714</v>
       </c>
     </row>
     <row r="41">
@@ -11590,19 +11590,19 @@
         <v>48971</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>36461</v>
+        <v>36026</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>64509</v>
+        <v>65928</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.07518183784123762</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.05597502831428335</v>
+        <v>0.05530717142456856</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.09903582919955357</v>
+        <v>0.1012133722958488</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>29</v>
@@ -11611,19 +11611,19 @@
         <v>33038</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>22134</v>
+        <v>21846</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>45503</v>
+        <v>46038</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.04831013769960699</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.0323652533087883</v>
+        <v>0.03194436231218722</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.06653631800329937</v>
+        <v>0.06731888766008391</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>71</v>
@@ -11632,19 +11632,19 @@
         <v>82009</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>64358</v>
+        <v>64304</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>103166</v>
+        <v>100729</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.06141892159264147</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.04819914777496542</v>
+        <v>0.04815901627304223</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.07726338588746921</v>
+        <v>0.07543866784719731</v>
       </c>
     </row>
     <row r="42">
@@ -11661,19 +11661,19 @@
         <v>175983</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>151491</v>
+        <v>151479</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>200559</v>
+        <v>200634</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.270173370013521</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.2325726736956971</v>
+        <v>0.2325532481058494</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.3079017938132484</v>
+        <v>0.3080177614836551</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>148</v>
@@ -11682,19 +11682,19 @@
         <v>153649</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>129010</v>
+        <v>132803</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>174591</v>
+        <v>177479</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.2246742961885797</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.1886450545885515</v>
+        <v>0.1941920628185171</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.2552969088454261</v>
+        <v>0.2595197779115337</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>301</v>
@@ -11703,19 +11703,19 @@
         <v>329633</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>297186</v>
+        <v>298012</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>365777</v>
+        <v>363222</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.2468700457303199</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.2225701624026723</v>
+        <v>0.223188620507968</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.2739395332922396</v>
+        <v>0.2720256573003071</v>
       </c>
     </row>
     <row r="43">
@@ -11732,19 +11732,19 @@
         <v>247387</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>223148</v>
+        <v>223937</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>276095</v>
+        <v>277313</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.3797939609303993</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.3425821649934379</v>
+        <v>0.3437934412560892</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.4238667106571294</v>
+        <v>0.4257362686671664</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>228</v>
@@ -11753,19 +11753,19 @@
         <v>242131</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>218382</v>
+        <v>215529</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>268810</v>
+        <v>267432</v>
       </c>
       <c r="N43" s="6" t="n">
         <v>0.3540567563216749</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.3193299813253873</v>
+        <v>0.3151581081488766</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.3930690601062412</v>
+        <v>0.3910536348528756</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>448</v>
@@ -11774,19 +11774,19 @@
         <v>489518</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>451561</v>
+        <v>454449</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>524759</v>
+        <v>525083</v>
       </c>
       <c r="U43" s="6" t="n">
         <v>0.3666121008457786</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.3381854624533235</v>
+        <v>0.3403478359544001</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.3930048758591838</v>
+        <v>0.3932474964984803</v>
       </c>
     </row>
     <row r="44">
@@ -11803,19 +11803,19 @@
         <v>166455</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>145623</v>
+        <v>143989</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>190045</v>
+        <v>190301</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.2555450188347959</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.2235634922364743</v>
+        <v>0.2210551075597761</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.2917611028429844</v>
+        <v>0.2921535876006969</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>229</v>
@@ -11824,19 +11824,19 @@
         <v>250142</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>225095</v>
+        <v>223963</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>273487</v>
+        <v>276958</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.3657707929004033</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.3291453241605634</v>
+        <v>0.3274906660323574</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.3999079677921217</v>
+        <v>0.4049825098250479</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>378</v>
@@ -11845,19 +11845,19 @@
         <v>416597</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>380498</v>
+        <v>380600</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>453739</v>
+        <v>453198</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.3119995077173732</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.284964173257074</v>
+        <v>0.2850405420523595</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.3398164400280538</v>
+        <v>0.3394111508978759</v>
       </c>
     </row>
     <row r="45">
@@ -11952,7 +11952,7 @@
         <v>0</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>8115</v>
+        <v>5628</v>
       </c>
       <c r="G46" s="6" t="n">
         <v>0.002417592505070412</v>
@@ -11961,7 +11961,7 @@
         <v>0</v>
       </c>
       <c r="I46" s="6" t="n">
-        <v>0.01047823298043948</v>
+        <v>0.007266939994576523</v>
       </c>
       <c r="J46" s="5" t="n">
         <v>7</v>
@@ -11970,19 +11970,19 @@
         <v>7831</v>
       </c>
       <c r="L46" s="5" t="n">
-        <v>3766</v>
+        <v>3337</v>
       </c>
       <c r="M46" s="5" t="n">
-        <v>16091</v>
+        <v>15343</v>
       </c>
       <c r="N46" s="6" t="n">
         <v>0.009511504460717158</v>
       </c>
       <c r="O46" s="6" t="n">
-        <v>0.004574182125892725</v>
+        <v>0.00405349914785121</v>
       </c>
       <c r="P46" s="6" t="n">
-        <v>0.01954439755505226</v>
+        <v>0.01863595043810966</v>
       </c>
       <c r="Q46" s="5" t="n">
         <v>9</v>
@@ -11991,19 +11991,19 @@
         <v>9703</v>
       </c>
       <c r="S46" s="5" t="n">
-        <v>4735</v>
+        <v>4781</v>
       </c>
       <c r="T46" s="5" t="n">
-        <v>18022</v>
+        <v>17897</v>
       </c>
       <c r="U46" s="6" t="n">
         <v>0.006073053000169203</v>
       </c>
       <c r="V46" s="6" t="n">
-        <v>0.00296344905777326</v>
+        <v>0.00299247054589992</v>
       </c>
       <c r="W46" s="6" t="n">
-        <v>0.01127984362652005</v>
+        <v>0.01120147527308266</v>
       </c>
     </row>
     <row r="47">
@@ -12020,19 +12020,19 @@
         <v>19499</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>12093</v>
+        <v>11974</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>29689</v>
+        <v>30171</v>
       </c>
       <c r="G47" s="6" t="n">
         <v>0.02517914423040496</v>
       </c>
       <c r="H47" s="6" t="n">
-        <v>0.01561504645136184</v>
+        <v>0.01546185633039704</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.03833733530089226</v>
+        <v>0.038958749700566</v>
       </c>
       <c r="J47" s="5" t="n">
         <v>11</v>
@@ -12041,19 +12041,19 @@
         <v>11403</v>
       </c>
       <c r="L47" s="5" t="n">
-        <v>5779</v>
+        <v>5973</v>
       </c>
       <c r="M47" s="5" t="n">
-        <v>19264</v>
+        <v>19784</v>
       </c>
       <c r="N47" s="6" t="n">
         <v>0.01385082302960555</v>
       </c>
       <c r="O47" s="6" t="n">
-        <v>0.007019449370120519</v>
+        <v>0.007255280982105369</v>
       </c>
       <c r="P47" s="6" t="n">
-        <v>0.02339870749138882</v>
+        <v>0.02403063953987309</v>
       </c>
       <c r="Q47" s="5" t="n">
         <v>30</v>
@@ -12062,19 +12062,19 @@
         <v>30903</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>21684</v>
+        <v>21434</v>
       </c>
       <c r="T47" s="5" t="n">
-        <v>43616</v>
+        <v>43099</v>
       </c>
       <c r="U47" s="6" t="n">
         <v>0.01934171195266858</v>
       </c>
       <c r="V47" s="6" t="n">
-        <v>0.01357154529816264</v>
+        <v>0.01341537556184605</v>
       </c>
       <c r="W47" s="6" t="n">
-        <v>0.02729884812789878</v>
+        <v>0.02697498109085947</v>
       </c>
     </row>
     <row r="48">
@@ -12091,19 +12091,19 @@
         <v>161435</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>137994</v>
+        <v>139149</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>183089</v>
+        <v>186806</v>
       </c>
       <c r="G48" s="6" t="n">
         <v>0.2084582372452159</v>
       </c>
       <c r="H48" s="6" t="n">
-        <v>0.1781885975163393</v>
+        <v>0.1796801266486702</v>
       </c>
       <c r="I48" s="6" t="n">
-        <v>0.2364195219388372</v>
+        <v>0.2412190392385629</v>
       </c>
       <c r="J48" s="5" t="n">
         <v>167</v>
@@ -12112,19 +12112,19 @@
         <v>176925</v>
       </c>
       <c r="L48" s="5" t="n">
-        <v>154651</v>
+        <v>153644</v>
       </c>
       <c r="M48" s="5" t="n">
-        <v>201052</v>
+        <v>201959</v>
       </c>
       <c r="N48" s="6" t="n">
         <v>0.2148975286534708</v>
       </c>
       <c r="O48" s="6" t="n">
-        <v>0.1878419974603047</v>
+        <v>0.1866191373155494</v>
       </c>
       <c r="P48" s="6" t="n">
-        <v>0.2442021812309896</v>
+        <v>0.2453039822649885</v>
       </c>
       <c r="Q48" s="5" t="n">
         <v>323</v>
@@ -12133,19 +12133,19 @@
         <v>338361</v>
       </c>
       <c r="S48" s="5" t="n">
-        <v>307442</v>
+        <v>306090</v>
       </c>
       <c r="T48" s="5" t="n">
-        <v>374734</v>
+        <v>373052</v>
       </c>
       <c r="U48" s="6" t="n">
         <v>0.2117763747561513</v>
       </c>
       <c r="V48" s="6" t="n">
-        <v>0.1924247993017626</v>
+        <v>0.1915788322128435</v>
       </c>
       <c r="W48" s="6" t="n">
-        <v>0.2345420426299529</v>
+        <v>0.2334892455048494</v>
       </c>
     </row>
     <row r="49">
@@ -12162,19 +12162,19 @@
         <v>469680</v>
       </c>
       <c r="E49" s="5" t="n">
-        <v>442994</v>
+        <v>441122</v>
       </c>
       <c r="F49" s="5" t="n">
-        <v>498592</v>
+        <v>495369</v>
       </c>
       <c r="G49" s="6" t="n">
         <v>0.6064883588323886</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>0.5720289338302288</v>
+        <v>0.5696119896370205</v>
       </c>
       <c r="I49" s="6" t="n">
-        <v>0.6438227948485129</v>
+        <v>0.6396609076890558</v>
       </c>
       <c r="J49" s="5" t="n">
         <v>433</v>
@@ -12183,19 +12183,19 @@
         <v>475664</v>
       </c>
       <c r="L49" s="5" t="n">
-        <v>447444</v>
+        <v>445195</v>
       </c>
       <c r="M49" s="5" t="n">
-        <v>505455</v>
+        <v>503498</v>
       </c>
       <c r="N49" s="6" t="n">
         <v>0.577752645697271</v>
       </c>
       <c r="O49" s="6" t="n">
-        <v>0.5434758994206712</v>
+        <v>0.5407438327317533</v>
       </c>
       <c r="P49" s="6" t="n">
-        <v>0.6139371990371243</v>
+        <v>0.6115598254759812</v>
       </c>
       <c r="Q49" s="5" t="n">
         <v>888</v>
@@ -12204,19 +12204,19 @@
         <v>945344</v>
       </c>
       <c r="S49" s="5" t="n">
-        <v>904173</v>
+        <v>907744</v>
       </c>
       <c r="T49" s="5" t="n">
-        <v>988647</v>
+        <v>991141</v>
       </c>
       <c r="U49" s="6" t="n">
         <v>0.591680976837705</v>
       </c>
       <c r="V49" s="6" t="n">
-        <v>0.5659124239111238</v>
+        <v>0.5681473431876174</v>
       </c>
       <c r="W49" s="6" t="n">
-        <v>0.6187835923399825</v>
+        <v>0.6203445360092485</v>
       </c>
     </row>
     <row r="50">
@@ -12233,19 +12233,19 @@
         <v>121938</v>
       </c>
       <c r="E50" s="5" t="n">
-        <v>102809</v>
+        <v>104481</v>
       </c>
       <c r="F50" s="5" t="n">
-        <v>143730</v>
+        <v>144300</v>
       </c>
       <c r="G50" s="6" t="n">
         <v>0.1574566671869201</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>0.1327552885870137</v>
+        <v>0.1349147138269787</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>0.1855958522930078</v>
+        <v>0.186331959232985</v>
       </c>
       <c r="J50" s="5" t="n">
         <v>134</v>
@@ -12254,19 +12254,19 @@
         <v>151477</v>
       </c>
       <c r="L50" s="5" t="n">
-        <v>129575</v>
+        <v>129829</v>
       </c>
       <c r="M50" s="5" t="n">
-        <v>176669</v>
+        <v>176157</v>
       </c>
       <c r="N50" s="6" t="n">
         <v>0.1839874981589355</v>
       </c>
       <c r="O50" s="6" t="n">
-        <v>0.1573846722515315</v>
+        <v>0.1576927062249271</v>
       </c>
       <c r="P50" s="6" t="n">
-        <v>0.2145861125560175</v>
+        <v>0.2139643549681157</v>
       </c>
       <c r="Q50" s="5" t="n">
         <v>248</v>
@@ -12275,19 +12275,19 @@
         <v>273415</v>
       </c>
       <c r="S50" s="5" t="n">
-        <v>241855</v>
+        <v>240481</v>
       </c>
       <c r="T50" s="5" t="n">
-        <v>308384</v>
+        <v>303326</v>
       </c>
       <c r="U50" s="6" t="n">
         <v>0.1711278834533058</v>
       </c>
       <c r="V50" s="6" t="n">
-        <v>0.1513742836975897</v>
+        <v>0.1505146720917096</v>
       </c>
       <c r="W50" s="6" t="n">
-        <v>0.1930143037948781</v>
+        <v>0.1898486380381745</v>
       </c>
     </row>
     <row r="51">
@@ -12379,19 +12379,19 @@
         <v>38401</v>
       </c>
       <c r="E52" s="5" t="n">
-        <v>26968</v>
+        <v>26447</v>
       </c>
       <c r="F52" s="5" t="n">
-        <v>50875</v>
+        <v>52431</v>
       </c>
       <c r="G52" s="6" t="n">
         <v>0.01137072968819178</v>
       </c>
       <c r="H52" s="6" t="n">
-        <v>0.007985499374166209</v>
+        <v>0.007831247892715172</v>
       </c>
       <c r="I52" s="6" t="n">
-        <v>0.01506449995783424</v>
+        <v>0.01552521434245097</v>
       </c>
       <c r="J52" s="5" t="n">
         <v>41</v>
@@ -12400,19 +12400,19 @@
         <v>43398</v>
       </c>
       <c r="L52" s="5" t="n">
-        <v>31473</v>
+        <v>31386</v>
       </c>
       <c r="M52" s="5" t="n">
-        <v>56955</v>
+        <v>58128</v>
       </c>
       <c r="N52" s="6" t="n">
         <v>0.01230169322295206</v>
       </c>
       <c r="O52" s="6" t="n">
-        <v>0.008921339113020531</v>
+        <v>0.008896872650049282</v>
       </c>
       <c r="P52" s="6" t="n">
-        <v>0.01614479292009116</v>
+        <v>0.01647722005344474</v>
       </c>
       <c r="Q52" s="5" t="n">
         <v>79</v>
@@ -12421,19 +12421,19 @@
         <v>81799</v>
       </c>
       <c r="S52" s="5" t="n">
-        <v>65431</v>
+        <v>64171</v>
       </c>
       <c r="T52" s="5" t="n">
-        <v>103779</v>
+        <v>100082</v>
       </c>
       <c r="U52" s="6" t="n">
         <v>0.01184636466632894</v>
       </c>
       <c r="V52" s="6" t="n">
-        <v>0.009475942125790076</v>
+        <v>0.009293440501535952</v>
       </c>
       <c r="W52" s="6" t="n">
-        <v>0.01502962324544578</v>
+        <v>0.01449423333672004</v>
       </c>
     </row>
     <row r="53">
@@ -12450,19 +12450,19 @@
         <v>139981</v>
       </c>
       <c r="E53" s="5" t="n">
-        <v>119064</v>
+        <v>118505</v>
       </c>
       <c r="F53" s="5" t="n">
-        <v>166087</v>
+        <v>166252</v>
       </c>
       <c r="G53" s="6" t="n">
         <v>0.04144911743822949</v>
       </c>
       <c r="H53" s="6" t="n">
-        <v>0.03525550466245571</v>
+        <v>0.03509006271218495</v>
       </c>
       <c r="I53" s="6" t="n">
-        <v>0.04917924777431749</v>
+        <v>0.0492281735823303</v>
       </c>
       <c r="J53" s="5" t="n">
         <v>86</v>
@@ -12471,19 +12471,19 @@
         <v>91104</v>
       </c>
       <c r="L53" s="5" t="n">
-        <v>72707</v>
+        <v>73467</v>
       </c>
       <c r="M53" s="5" t="n">
-        <v>111428</v>
+        <v>110891</v>
       </c>
       <c r="N53" s="6" t="n">
         <v>0.02582463709703127</v>
       </c>
       <c r="O53" s="6" t="n">
-        <v>0.02060970365780167</v>
+        <v>0.02082524874383928</v>
       </c>
       <c r="P53" s="6" t="n">
-        <v>0.03158577285999316</v>
+        <v>0.03143373390433096</v>
       </c>
       <c r="Q53" s="5" t="n">
         <v>216</v>
@@ -12492,19 +12492,19 @@
         <v>231085</v>
       </c>
       <c r="S53" s="5" t="n">
-        <v>199594</v>
+        <v>199201</v>
       </c>
       <c r="T53" s="5" t="n">
-        <v>260265</v>
+        <v>263762</v>
       </c>
       <c r="U53" s="6" t="n">
         <v>0.03346647462998691</v>
       </c>
       <c r="V53" s="6" t="n">
-        <v>0.02890594828016045</v>
+        <v>0.02884896623022984</v>
       </c>
       <c r="W53" s="6" t="n">
-        <v>0.03769249194699242</v>
+        <v>0.03819897678904947</v>
       </c>
     </row>
     <row r="54">
@@ -12521,19 +12521,19 @@
         <v>757181</v>
       </c>
       <c r="E54" s="5" t="n">
-        <v>710264</v>
+        <v>709388</v>
       </c>
       <c r="F54" s="5" t="n">
-        <v>812131</v>
+        <v>810351</v>
       </c>
       <c r="G54" s="6" t="n">
         <v>0.2242055755167192</v>
       </c>
       <c r="H54" s="6" t="n">
-        <v>0.2103133373884734</v>
+        <v>0.2100538954180474</v>
       </c>
       <c r="I54" s="6" t="n">
-        <v>0.2404767486677544</v>
+        <v>0.2399495274058582</v>
       </c>
       <c r="J54" s="5" t="n">
         <v>638</v>
@@ -12542,19 +12542,19 @@
         <v>662488</v>
       </c>
       <c r="L54" s="5" t="n">
-        <v>617536</v>
+        <v>610862</v>
       </c>
       <c r="M54" s="5" t="n">
-        <v>707186</v>
+        <v>709360</v>
       </c>
       <c r="N54" s="6" t="n">
         <v>0.1877916817739225</v>
       </c>
       <c r="O54" s="6" t="n">
-        <v>0.1750492101804361</v>
+        <v>0.1731573661278774</v>
       </c>
       <c r="P54" s="6" t="n">
-        <v>0.2004617329379444</v>
+        <v>0.2010780958690853</v>
       </c>
       <c r="Q54" s="5" t="n">
         <v>1352</v>
@@ -12563,19 +12563,19 @@
         <v>1419669</v>
       </c>
       <c r="S54" s="5" t="n">
-        <v>1355457</v>
+        <v>1351035</v>
       </c>
       <c r="T54" s="5" t="n">
-        <v>1487142</v>
+        <v>1492816</v>
       </c>
       <c r="U54" s="6" t="n">
         <v>0.2056014939307486</v>
       </c>
       <c r="V54" s="6" t="n">
-        <v>0.1963020460186458</v>
+        <v>0.1956616418068065</v>
       </c>
       <c r="W54" s="6" t="n">
-        <v>0.2153731878149791</v>
+        <v>0.2161948502958519</v>
       </c>
     </row>
     <row r="55">
@@ -12592,19 +12592,19 @@
         <v>1506272</v>
       </c>
       <c r="E55" s="5" t="n">
-        <v>1450167</v>
+        <v>1449355</v>
       </c>
       <c r="F55" s="5" t="n">
-        <v>1561417</v>
+        <v>1566158</v>
       </c>
       <c r="G55" s="6" t="n">
         <v>0.44601581164244</v>
       </c>
       <c r="H55" s="6" t="n">
-        <v>0.4294027659931722</v>
+        <v>0.4291624322678682</v>
       </c>
       <c r="I55" s="6" t="n">
-        <v>0.4623446688196294</v>
+        <v>0.4637483659491048</v>
       </c>
       <c r="J55" s="5" t="n">
         <v>1400</v>
@@ -12613,19 +12613,19 @@
         <v>1482581</v>
       </c>
       <c r="L55" s="5" t="n">
-        <v>1421796</v>
+        <v>1422875</v>
       </c>
       <c r="M55" s="5" t="n">
-        <v>1539904</v>
+        <v>1546224</v>
       </c>
       <c r="N55" s="6" t="n">
         <v>0.4202584608430841</v>
       </c>
       <c r="O55" s="6" t="n">
-        <v>0.4030281589576698</v>
+        <v>0.4033338043249493</v>
       </c>
       <c r="P55" s="6" t="n">
-        <v>0.4365074244323801</v>
+        <v>0.43829888663214</v>
       </c>
       <c r="Q55" s="5" t="n">
         <v>2847</v>
@@ -12634,19 +12634,19 @@
         <v>2988853</v>
       </c>
       <c r="S55" s="5" t="n">
-        <v>2908705</v>
+        <v>2906121</v>
       </c>
       <c r="T55" s="5" t="n">
-        <v>3082479</v>
+        <v>3071887</v>
       </c>
       <c r="U55" s="6" t="n">
         <v>0.432856223187155</v>
       </c>
       <c r="V55" s="6" t="n">
-        <v>0.4212488412238868</v>
+        <v>0.4208746960109419</v>
       </c>
       <c r="W55" s="6" t="n">
-        <v>0.4464154015588827</v>
+        <v>0.4448814891729024</v>
       </c>
     </row>
     <row r="56">
@@ -12663,19 +12663,19 @@
         <v>935337</v>
       </c>
       <c r="E56" s="5" t="n">
-        <v>884810</v>
+        <v>882862</v>
       </c>
       <c r="F56" s="5" t="n">
-        <v>990614</v>
+        <v>991078</v>
       </c>
       <c r="G56" s="6" t="n">
         <v>0.2769587657144196</v>
       </c>
       <c r="H56" s="6" t="n">
-        <v>0.2619974398964799</v>
+        <v>0.2614206663808566</v>
       </c>
       <c r="I56" s="6" t="n">
-        <v>0.2933266772243733</v>
+        <v>0.2934639840388975</v>
       </c>
       <c r="J56" s="5" t="n">
         <v>1157</v>
@@ -12684,19 +12684,19 @@
         <v>1248213</v>
       </c>
       <c r="L56" s="5" t="n">
-        <v>1191772</v>
+        <v>1194280</v>
       </c>
       <c r="M56" s="5" t="n">
-        <v>1307343</v>
+        <v>1316525</v>
       </c>
       <c r="N56" s="6" t="n">
         <v>0.3538235270630101</v>
       </c>
       <c r="O56" s="6" t="n">
-        <v>0.3378244705251708</v>
+        <v>0.3385355884739605</v>
       </c>
       <c r="P56" s="6" t="n">
-        <v>0.3705848202373231</v>
+        <v>0.3731874384283842</v>
       </c>
       <c r="Q56" s="5" t="n">
         <v>2044</v>
@@ -12705,19 +12705,19 @@
         <v>2183550</v>
       </c>
       <c r="S56" s="5" t="n">
-        <v>2103447</v>
+        <v>2103162</v>
       </c>
       <c r="T56" s="5" t="n">
-        <v>2259979</v>
+        <v>2263929</v>
       </c>
       <c r="U56" s="6" t="n">
         <v>0.3162294435857805</v>
       </c>
       <c r="V56" s="6" t="n">
-        <v>0.3046285293749607</v>
+        <v>0.3045872496219876</v>
       </c>
       <c r="W56" s="6" t="n">
-        <v>0.3272981312186607</v>
+        <v>0.3278701208010473</v>
       </c>
     </row>
     <row r="57">
